--- a/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00295113</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Interest of a 30 Minutes' Intermittent Work Exercise Test in Patients With Chronic Obstructive Pulmonary Disease: Cardiac and Pulmonary Functions</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00213915</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Effects of Oral Chronic L-Arginine Supplementation on Exercise and Renal Function of Heart Transplant Recipients</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02091791</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>High Versus Low Level of Lumbar Traction in Acute Lumbar Sciatica Due to Disc Herniation</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00213759</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prevention Trial of Nosocomial Infections in Neutropenic Prematures With G-CSF</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -684,32 +709,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00213850</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Reference Values for Respiratory Resistance Measured by the Interrupter Technique in Adults</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -728,32 +758,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00357487</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sentinel Lymph Node Identification in Case of Breast Cancer. Clinical Evaluation of a New Intra-operative Probe and a Mini Gamma Camera</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -772,36 +807,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00696033</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Exploring the Effects of Diazepam and Lorazepam on the Neural Correlates of Perceptual Priming and Explicit Memory in Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>ibid</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -820,32 +860,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00213837</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Reconstruction Implant Bone (Anterior Mandibular Arch) After Removing Using Porous Titanium Prosthesis in ENT Surgery</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -864,32 +909,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00620490</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia : Paravertebral Analgesia With a Catheter Associated With Intravenous Morphine Patient-controlled-analgesia (Pca)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -908,32 +958,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01013727</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Functional Neuroimaging of Postural Reconstruction: Preliminary Study on a Dorsiflexion Motion of the Ankle and Comparison Between an Arm Following Postural Reconstruction Program and a Comparator Arm Following a Muscular Stretching Program</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -952,32 +1007,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT00372268</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Evaluation of the Effects of Conditioning of Insufflated Gas on the Core Temperature and the Post-operative Pain During Laparoscopic Surgery</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -996,32 +1056,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00382707</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Transcranial Magnetic Stimulation and Anti-epileptic Effect: Optimization and Evaluation With Electrophysiology.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1040,32 +1105,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00434265</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>OBESITY, PHYSICAL INACTIVITY OR DIETARY FAT ? Role of Physical Activity in the Trafficking of Dietary Fatty Acids Varying in Length and Saturation Degree.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1084,32 +1154,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT00400413</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Phonological Perception and Learning to Read : the Neuroanatomy of Reading in Congenitally Deaf Persons</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1128,32 +1203,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT00213798</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Detection of Plasma DNA by Allelotyping in Non Small Cell and Small Cell Lung Cancer Patients. Evolution During Treatment and Follow-up.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1172,36 +1252,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01282697</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Phase I Clinical Trial of Rapamycin and Irinotecan in Pediatric Patients With Refractory Solid Tumors</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>RAPIRI</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1220,32 +1305,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT00446953</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Interest in Programming Caesarean Section at 38 Weeks of Pregnancy With Antenatal Betamethasone to Prevent Neonatal Respiratory Distress and to Avoid Emergency Caesarean Section Before Planned Date.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1264,32 +1354,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT00576134</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Artificial Larynx : Intralaryngeal Prosthesis With Valve in Major Swallowing Troubles</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1306,38 +1401,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2010-022329-13</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Etude de phase I associant la rapamycine et l’irinotecan dans toutes tumeurs solides réfractaires de l’enfant</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>RAPIRI</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1352,32 +1452,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02117206</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Protective Effects of L-arginine During Reperfusion by Femoropopliteal Bypass for Lower Limb Ischemic Syndrome in Humans</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1396,36 +1501,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01000441</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Rotation or Change of Biotherapy After First Anti-TNF Treatment Failure for Rheumatoid Arthritis</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>ROC</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1444,32 +1554,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT00813683</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Study of Cephalic Version by Acupuncture for Breech Presentation.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1488,32 +1603,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT00757302</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Evaluation of a New Intraoperative Gamma Camera for the Sentinel Lymph Node Procedure in Breast Cancer</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1532,32 +1652,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01960478</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Predictive Value of Copeptin in the Diagnosis of Acute Ischemic Stroke</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1576,32 +1701,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT00854698</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Long-Term Effects of Aortic Valve Mismatch on Functional Ability and Remodeling the Left Ventricular After Aortic Valve Replacement Mechanics</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1620,32 +1750,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT00792194</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Improvement of Aerobic Capacity in Cystic Fibrosis Patients With a One-year Home Training Period</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1664,32 +1799,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT01992835</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Resolution of Allergic Inflammation: Identification and Kinetics of Specific Lipid Mediators During Nasal Allergen Challenge</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1708,32 +1848,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01498211</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Establishement of Normative Intra-epidermal Nerve Fiber Density Using Skin</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1752,32 +1897,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01942343</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Etude de l'Effet du dropéridol et de l'Ondansetron Sur l'Incidence de l'Akathisie Post opératoire en Chirurgie Ambulatoire</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1796,36 +1946,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02478528</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Study of Effects of Light on the Vigilance and Cognitive Performance Following a Night Without Sleep</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>LUMI</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1844,32 +1999,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02150174</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Retrieval Practice in Patients With Schizophrenia : an Exploratory Study Using Word Pairs</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1888,32 +2048,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01760512</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Prospective, Single-blind, Randomized, Non-inferiority, and Controlled Study of Clinical and Health Economic Impact of Robot-assisted Surgery Versus Conventional Laparoscopy in Bariatric Surgery: the Case of Gastric Bypass</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1930,35 +2095,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2013-000905-22</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>à compléter 
  ETUDE DE L’EFFET DU DROPERIDOL ET DE L’ONDANSETRON SUR L’INCIDENCE DE L’AKATHISIE POST OPERATOIRE EN CHIRURGIE GYNECOLOGIQUE AMBULATOIRE</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1973,36 +2143,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02563444</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Interest in Using Ultrasound Fusion in Percutaneous Interventional Radiology</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>ECHOFUSION</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2021,32 +2196,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT00384540</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Allograft Vasculopathy After Heart Transplantation : Diagnostic Interest of Dobutamine Stress Echocardiography and Brain Natriuretic Peptide Coupling</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2065,36 +2245,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01980420</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Prospective Study of the Impact of Sleeve Gastrectomy on Gastro-esophageal Junction Function</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>FFSI</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2113,36 +2298,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02409953</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Effect of Immersion, Performed Under the Conditions of Obstetrical Dilatation Bath, on Diuresis and Hemodynamic Variables in Young Women</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>IMMERSION</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2161,36 +2351,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02582346</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Assessment of Magnetic Resonance Imaging Neurography and Tractography for Preoperative Mapping of Pelvic Nerves</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Neuro-Tracto</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2209,32 +2404,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT01329302</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Follicular Flushing for Poor Responder Patient in an Assisted Reproductive Technology Program: Flush Study</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2253,36 +2453,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT01881399</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Fluorescence Cholangiography Versus Conventional Intraoperative Cholangiography for Visualization of Biliary Tract Anatomy : a Prospective, Controlled Study</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>FLARIOC</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2301,36 +2506,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02026895</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Virulence of Staphylococcus Lugdunensis in Severe Infections</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>VISLISI</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -2349,36 +2559,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT01471002</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Prospective Study to Evaluate the Efficacy of Percutaneous Cryoablation for Renal Tumours &lt; 4cm in Patients Who Are Not Candidates for Partial Nephrectomy</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>CRYOREIN</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2397,32 +2612,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT00793676</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>G Protein Coupled Receptor (GPCR)Signature as Biomarker of Chronic Pulmonary Inflammatory Diseases and of Therapeutic Follow-up</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2441,36 +2661,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02011802</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Sorbact TM: Effect of a Microbial Binding Dressing on Wound Healing After Pilonidal Sinus Excision</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>SORKYSA</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2489,36 +2714,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02570594</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Autobiographical Memory Organization in Schizophrenia</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>AMOrSchiz</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2537,32 +2767,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02773589</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Prospective Evaluation of a New Approach to Perform an Esophageal Myotomy: the Transesophageal Submucosa Approach</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2581,32 +2816,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT01312649</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Feeling of Being in Control of One's Own Action: Which Mechanisms in Healthy Volunteers and in Mental Diseases</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2625,32 +2865,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02176681</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>A Prospective, Multicenter, Randomized, Open-label Study of 12 Week Duration to Evaluate the Effect of VILDagliptin Added to Insulin on Glycaemic Control in haemoDIALyzed Patients With Type 2 Diabetes: Probe Analysis of CGM</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2667,40 +2912,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2013-004737-33</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>A prospective, multicenter, randomized, open-label study of 12 week duration to evaluate the effect of VILDagliptin added to insulin on glycaemic control in haemoDIALyzed patients with type 2 diabetes: probe analysis of CGM  
  Etude prospective randomisée multicentrique d’évaluation de la VILDagliptine associée à l’insuline sur le contrôle glycémique chez les patients hémoDIALysés diabétiques de type 2 : étude VILDDIAL</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>VILDDIAL   
  VILDDIAL</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2713,39 +2963,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2015-003138-28</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Héparinothérapie pour la circulation extracorporelle en chirurgie cardiaque chez les patients obèses : étude prospective évaluant une posologie basée sur le poids idéal au C.H.U. de Strasbourg</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>HEPOIRINE 
  HEPOIRINE</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2760,36 +3015,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02476305</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Evaluation of the Cryodestruction of Non Abdominopelvic Desmoid Tumors in Patients Progressing Despite Medical</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>CRYODESMO01</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2808,36 +3068,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT01782235</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>A Randomized, Double-blind, Parallel, Placebo-controlled Trial to Evaluate the Efficacy of Tocilizumab for the Treatment of Primary Sjögren's Syndrome.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>ETAP</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2854,38 +3119,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2012-000809-67</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>EFFICACITE CLINIQUE  ET VASOCONSTRICTION CEREBRALE INDUITES PAR BLOOD PATCH VERSUS INJECTION PÉRIDURALE D’UNE SOLUTION D’HYDROXYETHYLAMIDON (VOLUVEN) CHEZ DES PATIENTS PRESENTANT DES CEPHALEES INVALIDANTES DUES A UNE HYPOTENSION INTRACRANIENNE</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>HEA vs Blood patch</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2900,28 +3170,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02552004</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Assessment of the Intraoperative Probe-based Confocal Laser Endomicroscopy in Digestive and Endocrine Surgery - a Pilot Study</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Pilot pCLE</t>
         </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -2929,7 +3201,10 @@
       <c r="K55" t="b">
         <v>1</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2948,36 +3223,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT02887560</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Comparison by Transoesophageal Assessement of Systolic Right Ventricle Function Measures in Perioperative Care of Pulmonary Transplant.</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>ETO VD PERIOP</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2996,32 +3276,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02030470</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Evaluation of Photodynamic Treatment FOTOSAN® Efficacy in Periodontology</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3040,36 +3325,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02626091</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Perfusion Evaluation by Real-time Fluorescence-based Enhanced Reality of Anastomosis</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>PERFECT</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3088,32 +3378,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02570724</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Clinical Effect and Cerebral Vasoconstriction Induced After Epidural Blood Patch Versus Epidural Hydroxyethyl Starch Patch in Patients With Headache Due to Intracranial Hypotension</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3132,36 +3427,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02472197</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Morcellator Versus Resectoscope in the Treatment of Uterine Polyps by Hysteroscopy</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>RESMO</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3180,32 +3480,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02815800</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t>ETHNOPARK</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -3224,32 +3529,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03946215</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Comparison of Cardiorespiratory Responses to Treadmill Running at Different Slopes in Well-trained Athletes</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3268,32 +3578,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT01698203</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia: Continuous Wound Catheter Analgesia Associated With Intravenous Morphine Patient-Controlled-Analgesia (PCA)</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3312,36 +3627,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02858765</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Influence of Light on Sleep, Awakening, Electroencephalogram (EEG) and Cognitive Performances, and Medical Technology Assessment for Registration and Long-term EEG Analysis</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>CHRONOSOMNO</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3360,36 +3680,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02747056</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Study of the Personal Identity in Adults With Autism Spectrum Disorder Without Intellectual Deficiency</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>TSASDI</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3408,36 +3733,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT01548729</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Metabolic Efficiency of Combined Pancreatic Islet and Lung Transplant for the Treatment of End-Stage Cystic Fibrosis : a Pilot Study</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>PIM</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3456,36 +3786,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT03706157</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Kinectics of Distribution of Doxorubicin-Lipiodol Emulsion in c-TACE: a Pilot Study</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>CineDoxo</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3504,36 +3839,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT03427593</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Phenotype-genotype Correlation in a Sub-population of Severe Primary Immunodeficiency With Lymphoproliferation and Neutropenia</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>DICEP</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -3550,39 +3890,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2014-003209-14</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>ASSESSMENT OF EARLY  CHANGES OBSERVABLE IN DIFFUSION MRI IN RESPONSE TO TYSABRI TREATMENT TO TWO YEARS IN PATIENTS WITH MULTIPLE SCLEROSIS 
  EVALUATION DES CHANGEMENTS PRÉCOCES VISIBLES À L’IRM DE DIFFUSION DANS LA RÉPONSE AU TRAITEMENT PAR TYSABRI À DEUX ANS CHEZ DES PATIENTS ATTEINTS DE SCLEROSE EN PLAQUES</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>TYSADIFF</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3597,36 +3942,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT03985345</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Prospective Evaluation of the Connected EMY Biofeedback Probe in the Management of Stress Urinary Incontinence.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Reduc@home</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3645,32 +3995,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT00476281</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Multicenter Prospective Study of Abnormalies Tolerance Glucose by the Continuous Measurement of Glucose of Nutritional Status and Breathing in the Patient With Cystic Fibrosis</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3689,36 +4044,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT03382327</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Multicentric Study Determining the Benefit of the Use of 3D Models and Tools in Hepatectomy Planning for Hepatocarcinomas</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>3D-HAPPI</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3737,36 +4097,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT03834181</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Evaluation of a Telemedicine System for Patients Carried for Bariatric Surgery</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Bartélémis</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3785,36 +4150,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT03881436</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Assessment of MRI Tractography for Pelvic Floor Sphincter Analysis</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>TractoCA</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3833,36 +4203,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT04423575</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Clinical and Economic Evaluation of Outpatient Bariatric Surgery</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Bariatric Ambu</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>1</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3881,36 +4256,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT03954145</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Comparison of Bonding Failure Rates of Fixed Mandibular Lingual Retainers in a French Sample Aged 11 or Older Comparing Prior Enamel Sandblasting With Conventional Pumice Polishing</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>CONTORTHO</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3929,36 +4309,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT04263818</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Étude du Mouvement de l'opérateur et de l'Endoscope au Cours de la Coloscopie</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>ScopeGuide</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3977,32 +4362,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03573752</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Study of Outpatient Management for Promontofixation by Laparoscopy</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4021,36 +4411,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT02900326</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Effect of a Mindfulness-based Stress Reduction (MBSR) Program Combined With Endurance Exercise Training: a Help to Improve Exercise Capacity and Quality of Life in Breast Cancer</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>MBSR</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -4069,28 +4464,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT04441684</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Study of the Seroprevalence of SARS-CoV-2 in Hospital Staff in Strasbourg University Hospital, Strasbourg, France</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>SeroCoV-HUS</t>
         </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -4098,7 +4495,10 @@
       <c r="K80" t="b">
         <v>1</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4117,28 +4517,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT04362358</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Efficacy of an Online Cognitive Behavioral Therapy (CBT) Programme Aiming at Reducing the Stress of Health Workers Involved in the Care of Patients During the Covid-19 Epidemic: a Randomized-controlled Trial</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>REST</t>
         </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
@@ -4146,7 +4548,10 @@
       <c r="K81" t="b">
         <v>1</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4165,36 +4570,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03949153</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Cryotherapy Under Interventional Radiology Combined With in Situ Ipilimumab and a Flat Dose of Nivolumab in Stage IIIB/C Melanoma. Prospective Proof of Concept Study.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>CRIRIN</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4213,36 +4623,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT05357729</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Safety and Performance Study of the MultiSense® Ambulatory Telemonitoring System for Non-critical Patient Management</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>TELESENSE</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4261,36 +4676,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT05178108</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Transposition of Dynamic MRI Data From Healthy Patients to an in Vitro Swallowing Simulator</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>SWALL-E</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4309,36 +4729,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT04480385</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Study of the Technological and Operational Feasibility of a Remote Automated Monitoring System for the Post-operative Care of Surgical Patients</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>REDASUR</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4357,36 +4782,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT05044585</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Evaluation of RDS MultiSense® in Desaturation Analysis and Effects of Hypoxia on Circulating Oxidative Stress and Mitochondrial Respiration in Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>HYPO</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4405,36 +4835,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT03458403</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Endoscopist and Endoscope Motions During Digestive Endoscopy</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>EndoMouv</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4453,36 +4888,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT04616287</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Self in Dementia With Lewy Bodies: a Behavioral and Multimodal Neuroimaging Study</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>SELF-MCL</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4501,32 +4941,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT02072642</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Light Therapy in Parkinson's Disease : Effect on Motor Symptoms, Sleep, Circadian Rhythms, and Mood</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4545,36 +4990,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT04580563</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Prospective Randomized Versus Placebo Study Assessing Efficacy of Plasmatherapy in Septic Shock-induced Coagulopathy: Feasibility Study</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>PlasmaFaisa</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4593,36 +5043,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT04532151</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Optical Coherence Tomography Imaging in Systemic Sclerosis</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>OCTISS</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4641,36 +5096,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT04153721</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Evaluation of a Digital Perioperative Support Solution for Colorectal Surgery: Compliance and Impact on Patients</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Get Ready</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4689,36 +5149,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT03996005</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Evaluation of an Alternative Treatment of Localized Prostate Cancer by Guided MRI Transurtral Ultrasound With 1-year Control of the Absence of Cancer</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>MRI-TULSAP</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4737,36 +5202,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT05707247</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Evaluation of the Feasibility of an Expert Decision Support System for Patients Regarding the Optimization of the Management of Drugs With Conditional Administration in the Surgical Department: Pilot Study</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>MORPHEE 2</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4785,36 +5255,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT03947216</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Study of Pimavanserin Efficacy for the Treatment of Impulse Control Disorders in Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>PIMPARK</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4833,36 +5308,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT04802954</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Risk Stratification of Hepatocarcinogenesis Using a Deep Learning Based Clinical, Biological and Ultrasound Model in High-risk Patients</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>STARHE</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4881,40 +5361,45 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT04222023</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
         <is>
           <t>2024-515243-37-00</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Intravenous Immunoglobulins for Prevention of BKV Infection in Kidney Transplant Recipients According to BKV Genotype-specific Neutralizing Antibody Titers at the Day of Transplantation: A Multicenter Study</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>BKANIG</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4933,32 +5418,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT02651948</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Transperineal, MRI-guided, Prostate Biopsy: First Step to Focal Treatment of Prostate Cancer</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4977,36 +5467,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT02414789</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Lyme Borreliosis and Early Cutaneous Diagnostic</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>DIABOLYC</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5025,36 +5520,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT03216967</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Multicenter Randomized Two-arms Study Evaluating the BK Viral Clearance in Kidney Transplant Recipients With BK Viremia After Reduction of Immunosuppression Alone vs. Reduction of Immunosuppression and Replacement of Mycophenolate Mofetil by Everolimus</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>BK EVER</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5073,28 +5573,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT00314405</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Identification of Sentinel Lymph Node (SLN) in Breast Cancer Care: Clinical and Economical Evaluation of a Double Method Using Isotope and Methylene Blue Dye Injection.</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5113,28 +5618,33 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT00401141</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Phenotypic Characteristics and Transcriptomas of B Lymphocytes During Non Active Systemic Lupus Erythematosus</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5153,28 +5663,33 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT00146094</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Osteopenia and Osteoporosis in HIV Infection. Prospective BMD Measurement in Antiretroviral (ARV) Treated and Untreated HIV-1 Infected Patients</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5191,34 +5706,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>2013-001686-16</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
         <is>
           <t>EVALUATION D'UN GEL DE MORPHINE ORAL DANS LES MUCITES CHIMIOINDUITES DE L'ENFANT ET DU JEUNE ADULTE</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>MorphinOGel</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5231,34 +5751,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>2016-001229-15</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
         <is>
           <t>Study of pimavanserin efficacy for the treatment of impulse control disorders in Parkinson's disease</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>PIMPARK</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5271,35 +5796,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>2018-002163-26</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
         <is>
           <t>Pilot study on doxorubicin kinetic distribution during arterial chemoembolization 
  Etude pilote de la cinétique de distribution de la Doxorubicine lors de la chimio-embolisation artérielle</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>CINEDOXO</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00295113</t>

--- a/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -73,58 +73,64 @@
     <t>NCT00213915</t>
   </si>
   <si>
+    <t>NCT00213759</t>
+  </si>
+  <si>
+    <t>NCT00213850</t>
+  </si>
+  <si>
     <t>NCT02091791</t>
   </si>
   <si>
-    <t>NCT00213759</t>
-  </si>
-  <si>
-    <t>NCT00213850</t>
-  </si>
-  <si>
     <t>NCT00357487</t>
   </si>
   <si>
+    <t>NCT00213837</t>
+  </si>
+  <si>
     <t>NCT00696033</t>
   </si>
   <si>
-    <t>NCT00213837</t>
-  </si>
-  <si>
     <t>NCT00620490</t>
   </si>
   <si>
     <t>NCT01013727</t>
   </si>
   <si>
+    <t>NCT00382707</t>
+  </si>
+  <si>
+    <t>NCT00213798</t>
+  </si>
+  <si>
+    <t>NCT00434265</t>
+  </si>
+  <si>
     <t>NCT00372268</t>
   </si>
   <si>
-    <t>NCT00382707</t>
-  </si>
-  <si>
-    <t>NCT00434265</t>
-  </si>
-  <si>
     <t>NCT00400413</t>
   </si>
   <si>
-    <t>NCT00213798</t>
+    <t>NCT02117206</t>
+  </si>
+  <si>
+    <t>NCT01000441</t>
+  </si>
+  <si>
+    <t>NCT00446953</t>
+  </si>
+  <si>
+    <t>NCT00576134</t>
   </si>
   <si>
     <t>NCT01282697</t>
   </si>
   <si>
-    <t>NCT00446953</t>
-  </si>
-  <si>
-    <t>NCT00576134</t>
-  </si>
-  <si>
-    <t>NCT02117206</t>
-  </si>
-  <si>
-    <t>NCT01000441</t>
+    <t>NCT01498211</t>
+  </si>
+  <si>
+    <t>NCT01960478</t>
   </si>
   <si>
     <t>NCT00813683</t>
@@ -133,34 +139,34 @@
     <t>NCT00757302</t>
   </si>
   <si>
-    <t>NCT01960478</t>
+    <t>NCT00792194</t>
+  </si>
+  <si>
+    <t>NCT01992835</t>
   </si>
   <si>
     <t>NCT00854698</t>
   </si>
   <si>
-    <t>NCT00792194</t>
-  </si>
-  <si>
-    <t>NCT01992835</t>
-  </si>
-  <si>
-    <t>NCT01498211</t>
+    <t>NCT02563444</t>
+  </si>
+  <si>
+    <t>NCT02478528</t>
   </si>
   <si>
     <t>NCT01942343</t>
   </si>
   <si>
-    <t>NCT02478528</t>
+    <t>NCT01760512</t>
   </si>
   <si>
     <t>NCT02150174</t>
   </si>
   <si>
-    <t>NCT01760512</t>
-  </si>
-  <si>
-    <t>NCT02563444</t>
+    <t>NCT02026895</t>
+  </si>
+  <si>
+    <t>NCT02409953</t>
   </si>
   <si>
     <t>NCT00384540</t>
@@ -169,124 +175,127 @@
     <t>NCT01980420</t>
   </si>
   <si>
-    <t>NCT02409953</t>
+    <t>NCT01329302</t>
   </si>
   <si>
     <t>NCT02582346</t>
   </si>
   <si>
-    <t>NCT01329302</t>
+    <t>NCT01471002</t>
   </si>
   <si>
     <t>NCT01881399</t>
   </si>
   <si>
-    <t>NCT02026895</t>
-  </si>
-  <si>
-    <t>NCT01471002</t>
+    <t>NCT02570594</t>
+  </si>
+  <si>
+    <t>NCT02176681</t>
+  </si>
+  <si>
+    <t>NCT01312649</t>
+  </si>
+  <si>
+    <t>NCT02011802</t>
   </si>
   <si>
     <t>NCT00793676</t>
   </si>
   <si>
-    <t>NCT02011802</t>
-  </si>
-  <si>
-    <t>NCT02570594</t>
-  </si>
-  <si>
     <t>NCT02773589</t>
   </si>
   <si>
-    <t>NCT01312649</t>
-  </si>
-  <si>
-    <t>NCT02176681</t>
-  </si>
-  <si>
     <t>NCT02476305</t>
   </si>
   <si>
+    <t>NCT02815800</t>
+  </si>
+  <si>
+    <t>NCT01698203</t>
+  </si>
+  <si>
+    <t>NCT02030470</t>
+  </si>
+  <si>
+    <t>NCT02472197</t>
+  </si>
+  <si>
     <t>NCT01782235</t>
   </si>
   <si>
+    <t>NCT02570724</t>
+  </si>
+  <si>
     <t>NCT02552004</t>
   </si>
   <si>
+    <t>NCT02626091</t>
+  </si>
+  <si>
     <t>NCT02887560</t>
   </si>
   <si>
-    <t>NCT02030470</t>
-  </si>
-  <si>
-    <t>NCT02626091</t>
-  </si>
-  <si>
-    <t>NCT02570724</t>
-  </si>
-  <si>
-    <t>NCT02472197</t>
-  </si>
-  <si>
-    <t>NCT02815800</t>
-  </si>
-  <si>
     <t>NCT03946215</t>
   </si>
   <si>
-    <t>NCT01698203</t>
+    <t>NCT03427593</t>
+  </si>
+  <si>
+    <t>NCT01548729</t>
+  </si>
+  <si>
+    <t>NCT02747056</t>
   </si>
   <si>
     <t>NCT02858765</t>
   </si>
   <si>
-    <t>NCT02747056</t>
-  </si>
-  <si>
-    <t>NCT01548729</t>
-  </si>
-  <si>
     <t>NCT03706157</t>
   </si>
   <si>
-    <t>NCT03427593</t>
+    <t>NCT00476281</t>
+  </si>
+  <si>
+    <t>NCT03382327</t>
   </si>
   <si>
     <t>NCT03985345</t>
   </si>
   <si>
-    <t>NCT00476281</t>
-  </si>
-  <si>
-    <t>NCT03382327</t>
-  </si>
-  <si>
     <t>NCT03834181</t>
   </si>
   <si>
+    <t>NCT04441684</t>
+  </si>
+  <si>
+    <t>NCT03954145</t>
+  </si>
+  <si>
+    <t>NCT02900326</t>
+  </si>
+  <si>
+    <t>NCT04263818</t>
+  </si>
+  <si>
+    <t>NCT04362358</t>
+  </si>
+  <si>
+    <t>NCT03573752</t>
+  </si>
+  <si>
     <t>NCT03881436</t>
   </si>
   <si>
     <t>NCT04423575</t>
   </si>
   <si>
-    <t>NCT03954145</t>
-  </si>
-  <si>
-    <t>NCT04263818</t>
-  </si>
-  <si>
-    <t>NCT03573752</t>
-  </si>
-  <si>
-    <t>NCT02900326</t>
-  </si>
-  <si>
-    <t>NCT04441684</t>
-  </si>
-  <si>
-    <t>NCT04362358</t>
+    <t>NCT04480385</t>
+  </si>
+  <si>
+    <t>NCT05044585</t>
+  </si>
+  <si>
+    <t>NCT03458403</t>
   </si>
   <si>
     <t>NCT03949153</t>
@@ -298,54 +307,45 @@
     <t>NCT05178108</t>
   </si>
   <si>
-    <t>NCT04480385</t>
-  </si>
-  <si>
-    <t>NCT05044585</t>
-  </si>
-  <si>
-    <t>NCT03458403</t>
+    <t>NCT04532151</t>
+  </si>
+  <si>
+    <t>NCT03996005</t>
+  </si>
+  <si>
+    <t>NCT02072642</t>
   </si>
   <si>
     <t>NCT04616287</t>
   </si>
   <si>
-    <t>NCT02072642</t>
+    <t>NCT05707247</t>
   </si>
   <si>
     <t>NCT04580563</t>
   </si>
   <si>
-    <t>NCT04532151</t>
-  </si>
-  <si>
     <t>NCT04153721</t>
   </si>
   <si>
-    <t>NCT03996005</t>
-  </si>
-  <si>
-    <t>NCT05707247</t>
+    <t>NCT04802954</t>
+  </si>
+  <si>
+    <t>NCT04222023</t>
+  </si>
+  <si>
+    <t>NCT03216967</t>
+  </si>
+  <si>
+    <t>NCT02414789</t>
+  </si>
+  <si>
+    <t>NCT02651948</t>
   </si>
   <si>
     <t>NCT03947216</t>
   </si>
   <si>
-    <t>NCT04802954</t>
-  </si>
-  <si>
-    <t>NCT04222023</t>
-  </si>
-  <si>
-    <t>NCT02651948</t>
-  </si>
-  <si>
-    <t>NCT02414789</t>
-  </si>
-  <si>
-    <t>NCT03216967</t>
-  </si>
-  <si>
     <t>NCT00314405</t>
   </si>
   <si>
@@ -373,12 +373,12 @@
     <t>2014-003209-14</t>
   </si>
   <si>
+    <t>2016-001229-15</t>
+  </si>
+  <si>
     <t>2013-001686-16</t>
   </si>
   <si>
-    <t>2016-001229-15</t>
-  </si>
-  <si>
     <t>2018-002163-26</t>
   </si>
   <si>
@@ -451,61 +451,67 @@
     <t>Effects of Oral Chronic L-Arginine Supplementation on Exercise and Renal Function of Heart Transplant Recipients</t>
   </si>
   <si>
+    <t>Prevention Trial of Nosocomial Infections in Neutropenic Prematures With G-CSF</t>
+  </si>
+  <si>
+    <t>Reference Values for Respiratory Resistance Measured by the Interrupter Technique in Adults</t>
+  </si>
+  <si>
     <t>High Versus Low Level of Lumbar Traction in Acute Lumbar Sciatica Due to Disc Herniation</t>
   </si>
   <si>
-    <t>Prevention Trial of Nosocomial Infections in Neutropenic Prematures With G-CSF</t>
-  </si>
-  <si>
-    <t>Reference Values for Respiratory Resistance Measured by the Interrupter Technique in Adults</t>
-  </si>
-  <si>
     <t>Sentinel Lymph Node Identification in Case of Breast Cancer. Clinical Evaluation of a New Intra-operative Probe and a Mini Gamma Camera</t>
   </si>
   <si>
+    <t>Reconstruction Implant Bone (Anterior Mandibular Arch) After Removing Using Porous Titanium Prosthesis in ENT Surgery</t>
+  </si>
+  <si>
     <t>Exploring the Effects of Diazepam and Lorazepam on the Neural Correlates of Perceptual Priming and Explicit Memory in Healthy Volunteers</t>
   </si>
   <si>
-    <t>Reconstruction Implant Bone (Anterior Mandibular Arch) After Removing Using Porous Titanium Prosthesis in ENT Surgery</t>
-  </si>
-  <si>
     <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia : Paravertebral Analgesia With a Catheter Associated With Intravenous Morphine Patient-controlled-analgesia (Pca)</t>
   </si>
   <si>
     <t>Functional Neuroimaging of Postural Reconstruction: Preliminary Study on a Dorsiflexion Motion of the Ankle and Comparison Between an Arm Following Postural Reconstruction Program and a Comparator Arm Following a Muscular Stretching Program</t>
   </si>
   <si>
+    <t>Transcranial Magnetic Stimulation and Anti-epileptic Effect: Optimization and Evaluation With Electrophysiology.</t>
+  </si>
+  <si>
+    <t>Detection of Plasma DNA by Allelotyping in Non Small Cell and Small Cell Lung Cancer Patients. Evolution During Treatment and Follow-up.</t>
+  </si>
+  <si>
+    <t>OBESITY, PHYSICAL INACTIVITY OR DIETARY FAT ? Role of Physical Activity in the Trafficking of Dietary Fatty Acids Varying in Length and Saturation Degree.</t>
+  </si>
+  <si>
     <t>Evaluation of the Effects of Conditioning of Insufflated Gas on the Core Temperature and the Post-operative Pain During Laparoscopic Surgery</t>
   </si>
   <si>
-    <t>Transcranial Magnetic Stimulation and Anti-epileptic Effect: Optimization and Evaluation With Electrophysiology.</t>
-  </si>
-  <si>
-    <t>OBESITY, PHYSICAL INACTIVITY OR DIETARY FAT ? Role of Physical Activity in the Trafficking of Dietary Fatty Acids Varying in Length and Saturation Degree.</t>
-  </si>
-  <si>
     <t>Phonological Perception and Learning to Read : the Neuroanatomy of Reading in Congenitally Deaf Persons</t>
   </si>
   <si>
-    <t>Detection of Plasma DNA by Allelotyping in Non Small Cell and Small Cell Lung Cancer Patients. Evolution During Treatment and Follow-up.</t>
+    <t>Protective Effects of L-arginine During Reperfusion by Femoropopliteal Bypass for Lower Limb Ischemic Syndrome in Humans</t>
+  </si>
+  <si>
+    <t>Rotation or Change of Biotherapy After First Anti-TNF Treatment Failure for Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Interest in Programming Caesarean Section at 38 Weeks of Pregnancy With Antenatal Betamethasone to Prevent Neonatal Respiratory Distress and to Avoid Emergency Caesarean Section Before Planned Date.</t>
+  </si>
+  <si>
+    <t>Etude de phase I associant la rapamycine et l’irinotecan dans toutes tumeurs solides réfractaires de l’enfant</t>
+  </si>
+  <si>
+    <t>Artificial Larynx : Intralaryngeal Prosthesis With Valve in Major Swallowing Troubles</t>
   </si>
   <si>
     <t>Phase I Clinical Trial of Rapamycin and Irinotecan in Pediatric Patients With Refractory Solid Tumors</t>
   </si>
   <si>
-    <t>Interest in Programming Caesarean Section at 38 Weeks of Pregnancy With Antenatal Betamethasone to Prevent Neonatal Respiratory Distress and to Avoid Emergency Caesarean Section Before Planned Date.</t>
-  </si>
-  <si>
-    <t>Artificial Larynx : Intralaryngeal Prosthesis With Valve in Major Swallowing Troubles</t>
-  </si>
-  <si>
-    <t>Etude de phase I associant la rapamycine et l’irinotecan dans toutes tumeurs solides réfractaires de l’enfant</t>
-  </si>
-  <si>
-    <t>Protective Effects of L-arginine During Reperfusion by Femoropopliteal Bypass for Lower Limb Ischemic Syndrome in Humans</t>
-  </si>
-  <si>
-    <t>Rotation or Change of Biotherapy After First Anti-TNF Treatment Failure for Rheumatoid Arthritis</t>
+    <t>Establishement of Normative Intra-epidermal Nerve Fiber Density Using Skin</t>
+  </si>
+  <si>
+    <t>Predictive Value of Copeptin in the Diagnosis of Acute Ischemic Stroke</t>
   </si>
   <si>
     <t>Study of Cephalic Version by Acupuncture for Breech Presentation.</t>
@@ -514,38 +520,38 @@
     <t>Evaluation of a New Intraoperative Gamma Camera for the Sentinel Lymph Node Procedure in Breast Cancer</t>
   </si>
   <si>
-    <t>Predictive Value of Copeptin in the Diagnosis of Acute Ischemic Stroke</t>
+    <t>Improvement of Aerobic Capacity in Cystic Fibrosis Patients With a One-year Home Training Period</t>
+  </si>
+  <si>
+    <t>Resolution of Allergic Inflammation: Identification and Kinetics of Specific Lipid Mediators During Nasal Allergen Challenge</t>
   </si>
   <si>
     <t>Long-Term Effects of Aortic Valve Mismatch on Functional Ability and Remodeling the Left Ventricular After Aortic Valve Replacement Mechanics</t>
   </si>
   <si>
-    <t>Improvement of Aerobic Capacity in Cystic Fibrosis Patients With a One-year Home Training Period</t>
-  </si>
-  <si>
-    <t>Resolution of Allergic Inflammation: Identification and Kinetics of Specific Lipid Mediators During Nasal Allergen Challenge</t>
-  </si>
-  <si>
-    <t>Establishement of Normative Intra-epidermal Nerve Fiber Density Using Skin</t>
-  </si>
-  <si>
-    <t>Etude de l'Effet du dropéridol et de l'Ondansetron Sur l'Incidence de l'Akathisie Post opératoire en Chirurgie Ambulatoire</t>
-  </si>
-  <si>
-    <t>Study of Effects of Light on the Vigilance and Cognitive Performance Following a Night Without Sleep</t>
-  </si>
-  <si>
-    <t>Retrieval Practice in Patients With Schizophrenia : an Exploratory Study Using Word Pairs</t>
-  </si>
-  <si>
-    <t>Prospective, Single-blind, Randomized, Non-inferiority, and Controlled Study of Clinical and Health Economic Impact of Robot-assisted Surgery Versus Conventional Laparoscopy in Bariatric Surgery: the Case of Gastric Bypass</t>
+    <t>Interest in Using Ultrasound Fusion in Percutaneous Interventional Radiology</t>
   </si>
   <si>
     <t>à compléter 
  ETUDE DE L’EFFET DU DROPERIDOL ET DE L’ONDANSETRON SUR L’INCIDENCE DE L’AKATHISIE POST OPERATOIRE EN CHIRURGIE GYNECOLOGIQUE AMBULATOIRE</t>
   </si>
   <si>
-    <t>Interest in Using Ultrasound Fusion in Percutaneous Interventional Radiology</t>
+    <t>Study of Effects of Light on the Vigilance and Cognitive Performance Following a Night Without Sleep</t>
+  </si>
+  <si>
+    <t>Etude de l'Effet du dropéridol et de l'Ondansetron Sur l'Incidence de l'Akathisie Post opératoire en Chirurgie Ambulatoire</t>
+  </si>
+  <si>
+    <t>Prospective, Single-blind, Randomized, Non-inferiority, and Controlled Study of Clinical and Health Economic Impact of Robot-assisted Surgery Versus Conventional Laparoscopy in Bariatric Surgery: the Case of Gastric Bypass</t>
+  </si>
+  <si>
+    <t>Retrieval Practice in Patients With Schizophrenia : an Exploratory Study Using Word Pairs</t>
+  </si>
+  <si>
+    <t>Virulence of Staphylococcus Lugdunensis in Severe Infections</t>
+  </si>
+  <si>
+    <t>Effect of Immersion, Performed Under the Conditions of Obstetrical Dilatation Bath, on Diuresis and Hemodynamic Variables in Young Women</t>
   </si>
   <si>
     <t>Allograft Vasculopathy After Heart Transplantation : Diagnostic Interest of Dobutamine Stress Echocardiography and Brain Natriuretic Peptide Coupling</t>
@@ -554,40 +560,25 @@
     <t>Prospective Study of the Impact of Sleeve Gastrectomy on Gastro-esophageal Junction Function</t>
   </si>
   <si>
-    <t>Effect of Immersion, Performed Under the Conditions of Obstetrical Dilatation Bath, on Diuresis and Hemodynamic Variables in Young Women</t>
+    <t>Follicular Flushing for Poor Responder Patient in an Assisted Reproductive Technology Program: Flush Study</t>
   </si>
   <si>
     <t>Assessment of Magnetic Resonance Imaging Neurography and Tractography for Preoperative Mapping of Pelvic Nerves</t>
   </si>
   <si>
-    <t>Follicular Flushing for Poor Responder Patient in an Assisted Reproductive Technology Program: Flush Study</t>
+    <t>Prospective Study to Evaluate the Efficacy of Percutaneous Cryoablation for Renal Tumours &lt; 4cm in Patients Who Are Not Candidates for Partial Nephrectomy</t>
   </si>
   <si>
     <t>Fluorescence Cholangiography Versus Conventional Intraoperative Cholangiography for Visualization of Biliary Tract Anatomy : a Prospective, Controlled Study</t>
   </si>
   <si>
-    <t>Virulence of Staphylococcus Lugdunensis in Severe Infections</t>
-  </si>
-  <si>
-    <t>Prospective Study to Evaluate the Efficacy of Percutaneous Cryoablation for Renal Tumours &lt; 4cm in Patients Who Are Not Candidates for Partial Nephrectomy</t>
-  </si>
-  <si>
-    <t>G Protein Coupled Receptor (GPCR)Signature as Biomarker of Chronic Pulmonary Inflammatory Diseases and of Therapeutic Follow-up</t>
-  </si>
-  <si>
-    <t>Sorbact TM: Effect of a Microbial Binding Dressing on Wound Healing After Pilonidal Sinus Excision</t>
-  </si>
-  <si>
     <t>Autobiographical Memory Organization in Schizophrenia</t>
   </si>
   <si>
-    <t>Prospective Evaluation of a New Approach to Perform an Esophageal Myotomy: the Transesophageal Submucosa Approach</t>
+    <t>A Prospective, Multicenter, Randomized, Open-label Study of 12 Week Duration to Evaluate the Effect of VILDagliptin Added to Insulin on Glycaemic Control in haemoDIALyzed Patients With Type 2 Diabetes: Probe Analysis of CGM</t>
   </si>
   <si>
     <t>Feeling of Being in Control of One's Own Action: Which Mechanisms in Healthy Volunteers and in Mental Diseases</t>
-  </si>
-  <si>
-    <t>A Prospective, Multicenter, Randomized, Open-label Study of 12 Week Duration to Evaluate the Effect of VILDagliptin Added to Insulin on Glycaemic Control in haemoDIALyzed Patients With Type 2 Diabetes: Probe Analysis of CGM</t>
   </si>
   <si>
     <t>A prospective, multicenter, randomized, open-label study of 12 week duration to evaluate the effect of VILDagliptin added to insulin on glycaemic control in haemoDIALyzed patients with type 2 diabetes: probe analysis of CGM  
@@ -597,49 +588,46 @@
     <t>Héparinothérapie pour la circulation extracorporelle en chirurgie cardiaque chez les patients obèses : étude prospective évaluant une posologie basée sur le poids idéal au C.H.U. de Strasbourg</t>
   </si>
   <si>
+    <t>Sorbact TM: Effect of a Microbial Binding Dressing on Wound Healing After Pilonidal Sinus Excision</t>
+  </si>
+  <si>
+    <t>G Protein Coupled Receptor (GPCR)Signature as Biomarker of Chronic Pulmonary Inflammatory Diseases and of Therapeutic Follow-up</t>
+  </si>
+  <si>
+    <t>Prospective Evaluation of a New Approach to Perform an Esophageal Myotomy: the Transesophageal Submucosa Approach</t>
+  </si>
+  <si>
     <t>Evaluation of the Cryodestruction of Non Abdominopelvic Desmoid Tumors in Patients Progressing Despite Medical</t>
   </si>
   <si>
+    <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia: Continuous Wound Catheter Analgesia Associated With Intravenous Morphine Patient-Controlled-Analgesia (PCA)</t>
+  </si>
+  <si>
+    <t>Evaluation of Photodynamic Treatment FOTOSAN® Efficacy in Periodontology</t>
+  </si>
+  <si>
+    <t>Morcellator Versus Resectoscope in the Treatment of Uterine Polyps by Hysteroscopy</t>
+  </si>
+  <si>
+    <t>EFFICACITE CLINIQUE  ET VASOCONSTRICTION CEREBRALE INDUITES PAR BLOOD PATCH VERSUS INJECTION PÉRIDURALE D’UNE SOLUTION D’HYDROXYETHYLAMIDON (VOLUVEN) CHEZ DES PATIENTS PRESENTANT DES CEPHALEES INVALIDANTES DUES A UNE HYPOTENSION INTRACRANIENNE</t>
+  </si>
+  <si>
     <t>A Randomized, Double-blind, Parallel, Placebo-controlled Trial to Evaluate the Efficacy of Tocilizumab for the Treatment of Primary Sjögren's Syndrome.</t>
   </si>
   <si>
-    <t>EFFICACITE CLINIQUE  ET VASOCONSTRICTION CEREBRALE INDUITES PAR BLOOD PATCH VERSUS INJECTION PÉRIDURALE D’UNE SOLUTION D’HYDROXYETHYLAMIDON (VOLUVEN) CHEZ DES PATIENTS PRESENTANT DES CEPHALEES INVALIDANTES DUES A UNE HYPOTENSION INTRACRANIENNE</t>
+    <t>Clinical Effect and Cerebral Vasoconstriction Induced After Epidural Blood Patch Versus Epidural Hydroxyethyl Starch Patch in Patients With Headache Due to Intracranial Hypotension</t>
   </si>
   <si>
     <t>Assessment of the Intraoperative Probe-based Confocal Laser Endomicroscopy in Digestive and Endocrine Surgery - a Pilot Study</t>
   </si>
   <si>
+    <t>Perfusion Evaluation by Real-time Fluorescence-based Enhanced Reality of Anastomosis</t>
+  </si>
+  <si>
     <t>Comparison by Transoesophageal Assessement of Systolic Right Ventricle Function Measures in Perioperative Care of Pulmonary Transplant.</t>
   </si>
   <si>
-    <t>Evaluation of Photodynamic Treatment FOTOSAN® Efficacy in Periodontology</t>
-  </si>
-  <si>
-    <t>Perfusion Evaluation by Real-time Fluorescence-based Enhanced Reality of Anastomosis</t>
-  </si>
-  <si>
-    <t>Clinical Effect and Cerebral Vasoconstriction Induced After Epidural Blood Patch Versus Epidural Hydroxyethyl Starch Patch in Patients With Headache Due to Intracranial Hypotension</t>
-  </si>
-  <si>
-    <t>Morcellator Versus Resectoscope in the Treatment of Uterine Polyps by Hysteroscopy</t>
-  </si>
-  <si>
     <t>Comparison of Cardiorespiratory Responses to Treadmill Running at Different Slopes in Well-trained Athletes</t>
-  </si>
-  <si>
-    <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia: Continuous Wound Catheter Analgesia Associated With Intravenous Morphine Patient-Controlled-Analgesia (PCA)</t>
-  </si>
-  <si>
-    <t>Influence of Light on Sleep, Awakening, Electroencephalogram (EEG) and Cognitive Performances, and Medical Technology Assessment for Registration and Long-term EEG Analysis</t>
-  </si>
-  <si>
-    <t>Study of the Personal Identity in Adults With Autism Spectrum Disorder Without Intellectual Deficiency</t>
-  </si>
-  <si>
-    <t>Metabolic Efficiency of Combined Pancreatic Islet and Lung Transplant for the Treatment of End-Stage Cystic Fibrosis : a Pilot Study</t>
-  </si>
-  <si>
-    <t>Kinectics of Distribution of Doxorubicin-Lipiodol Emulsion in c-TACE: a Pilot Study</t>
   </si>
   <si>
     <t>Phenotype-genotype Correlation in a Sub-population of Severe Primary Immunodeficiency With Lymphoproliferation and Neutropenia</t>
@@ -649,40 +637,61 @@
  EVALUATION DES CHANGEMENTS PRÉCOCES VISIBLES À L’IRM DE DIFFUSION DANS LA RÉPONSE AU TRAITEMENT PAR TYSABRI À DEUX ANS CHEZ DES PATIENTS ATTEINTS DE SCLEROSE EN PLAQUES</t>
   </si>
   <si>
+    <t>Metabolic Efficiency of Combined Pancreatic Islet and Lung Transplant for the Treatment of End-Stage Cystic Fibrosis : a Pilot Study</t>
+  </si>
+  <si>
+    <t>Study of the Personal Identity in Adults With Autism Spectrum Disorder Without Intellectual Deficiency</t>
+  </si>
+  <si>
+    <t>Influence of Light on Sleep, Awakening, Electroencephalogram (EEG) and Cognitive Performances, and Medical Technology Assessment for Registration and Long-term EEG Analysis</t>
+  </si>
+  <si>
+    <t>Kinectics of Distribution of Doxorubicin-Lipiodol Emulsion in c-TACE: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Multicenter Prospective Study of Abnormalies Tolerance Glucose by the Continuous Measurement of Glucose of Nutritional Status and Breathing in the Patient With Cystic Fibrosis</t>
+  </si>
+  <si>
+    <t>Multicentric Study Determining the Benefit of the Use of 3D Models and Tools in Hepatectomy Planning for Hepatocarcinomas</t>
+  </si>
+  <si>
     <t>Prospective Evaluation of the Connected EMY Biofeedback Probe in the Management of Stress Urinary Incontinence.</t>
   </si>
   <si>
-    <t>Multicenter Prospective Study of Abnormalies Tolerance Glucose by the Continuous Measurement of Glucose of Nutritional Status and Breathing in the Patient With Cystic Fibrosis</t>
-  </si>
-  <si>
-    <t>Multicentric Study Determining the Benefit of the Use of 3D Models and Tools in Hepatectomy Planning for Hepatocarcinomas</t>
-  </si>
-  <si>
     <t>Evaluation of a Telemedicine System for Patients Carried for Bariatric Surgery</t>
   </si>
   <si>
+    <t>Study of the Seroprevalence of SARS-CoV-2 in Hospital Staff in Strasbourg University Hospital, Strasbourg, France</t>
+  </si>
+  <si>
+    <t>Comparison of Bonding Failure Rates of Fixed Mandibular Lingual Retainers in a French Sample Aged 11 or Older Comparing Prior Enamel Sandblasting With Conventional Pumice Polishing</t>
+  </si>
+  <si>
+    <t>Effect of a Mindfulness-based Stress Reduction (MBSR) Program Combined With Endurance Exercise Training: a Help to Improve Exercise Capacity and Quality of Life in Breast Cancer</t>
+  </si>
+  <si>
+    <t>Étude du Mouvement de l'opérateur et de l'Endoscope au Cours de la Coloscopie</t>
+  </si>
+  <si>
+    <t>Efficacy of an Online Cognitive Behavioral Therapy (CBT) Programme Aiming at Reducing the Stress of Health Workers Involved in the Care of Patients During the Covid-19 Epidemic: a Randomized-controlled Trial</t>
+  </si>
+  <si>
+    <t>Study of Outpatient Management for Promontofixation by Laparoscopy</t>
+  </si>
+  <si>
     <t>Assessment of MRI Tractography for Pelvic Floor Sphincter Analysis</t>
   </si>
   <si>
     <t>Clinical and Economic Evaluation of Outpatient Bariatric Surgery</t>
   </si>
   <si>
-    <t>Comparison of Bonding Failure Rates of Fixed Mandibular Lingual Retainers in a French Sample Aged 11 or Older Comparing Prior Enamel Sandblasting With Conventional Pumice Polishing</t>
-  </si>
-  <si>
-    <t>Étude du Mouvement de l'opérateur et de l'Endoscope au Cours de la Coloscopie</t>
-  </si>
-  <si>
-    <t>Study of Outpatient Management for Promontofixation by Laparoscopy</t>
-  </si>
-  <si>
-    <t>Effect of a Mindfulness-based Stress Reduction (MBSR) Program Combined With Endurance Exercise Training: a Help to Improve Exercise Capacity and Quality of Life in Breast Cancer</t>
-  </si>
-  <si>
-    <t>Study of the Seroprevalence of SARS-CoV-2 in Hospital Staff in Strasbourg University Hospital, Strasbourg, France</t>
-  </si>
-  <si>
-    <t>Efficacy of an Online Cognitive Behavioral Therapy (CBT) Programme Aiming at Reducing the Stress of Health Workers Involved in the Care of Patients During the Covid-19 Epidemic: a Randomized-controlled Trial</t>
+    <t>Study of the Technological and Operational Feasibility of a Remote Automated Monitoring System for the Post-operative Care of Surgical Patients</t>
+  </si>
+  <si>
+    <t>Evaluation of RDS MultiSense® in Desaturation Analysis and Effects of Hypoxia on Circulating Oxidative Stress and Mitochondrial Respiration in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Endoscopist and Endoscope Motions During Digestive Endoscopy</t>
   </si>
   <si>
     <t>Cryotherapy Under Interventional Radiology Combined With in Situ Ipilimumab and a Flat Dose of Nivolumab in Stage IIIB/C Melanoma. Prospective Proof of Concept Study.</t>
@@ -694,107 +703,95 @@
     <t>Transposition of Dynamic MRI Data From Healthy Patients to an in Vitro Swallowing Simulator</t>
   </si>
   <si>
-    <t>Study of the Technological and Operational Feasibility of a Remote Automated Monitoring System for the Post-operative Care of Surgical Patients</t>
-  </si>
-  <si>
-    <t>Evaluation of RDS MultiSense® in Desaturation Analysis and Effects of Hypoxia on Circulating Oxidative Stress and Mitochondrial Respiration in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Endoscopist and Endoscope Motions During Digestive Endoscopy</t>
+    <t>Optical Coherence Tomography Imaging in Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Evaluation of an Alternative Treatment of Localized Prostate Cancer by Guided MRI Transurtral Ultrasound With 1-year Control of the Absence of Cancer</t>
+  </si>
+  <si>
+    <t>Light Therapy in Parkinson's Disease : Effect on Motor Symptoms, Sleep, Circadian Rhythms, and Mood</t>
   </si>
   <si>
     <t>Self in Dementia With Lewy Bodies: a Behavioral and Multimodal Neuroimaging Study</t>
   </si>
   <si>
-    <t>Light Therapy in Parkinson's Disease : Effect on Motor Symptoms, Sleep, Circadian Rhythms, and Mood</t>
+    <t>Evaluation of the Feasibility of an Expert Decision Support System for Patients Regarding the Optimization of the Management of Drugs With Conditional Administration in the Surgical Department: Pilot Study</t>
   </si>
   <si>
     <t>Prospective Randomized Versus Placebo Study Assessing Efficacy of Plasmatherapy in Septic Shock-induced Coagulopathy: Feasibility Study</t>
   </si>
   <si>
-    <t>Optical Coherence Tomography Imaging in Systemic Sclerosis</t>
-  </si>
-  <si>
     <t>Evaluation of a Digital Perioperative Support Solution for Colorectal Surgery: Compliance and Impact on Patients</t>
   </si>
   <si>
-    <t>Evaluation of an Alternative Treatment of Localized Prostate Cancer by Guided MRI Transurtral Ultrasound With 1-year Control of the Absence of Cancer</t>
-  </si>
-  <si>
-    <t>Evaluation of the Feasibility of an Expert Decision Support System for Patients Regarding the Optimization of the Management of Drugs With Conditional Administration in the Surgical Department: Pilot Study</t>
+    <t>Risk Stratification of Hepatocarcinogenesis Using a Deep Learning Based Clinical, Biological and Ultrasound Model in High-risk Patients</t>
+  </si>
+  <si>
+    <t>Intravenous Immunoglobulins for Prevention of BKV Infection in Kidney Transplant Recipients According to BKV Genotype-specific Neutralizing Antibody Titers at the Day of Transplantation: A Multicenter Study</t>
+  </si>
+  <si>
+    <t>Multicenter Randomized Two-arms Study Evaluating the BK Viral Clearance in Kidney Transplant Recipients With BK Viremia After Reduction of Immunosuppression Alone vs. Reduction of Immunosuppression and Replacement of Mycophenolate Mofetil by Everolimus</t>
+  </si>
+  <si>
+    <t>Lyme Borreliosis and Early Cutaneous Diagnostic</t>
+  </si>
+  <si>
+    <t>Transperineal, MRI-guided, Prostate Biopsy: First Step to Focal Treatment of Prostate Cancer</t>
   </si>
   <si>
     <t>Study of Pimavanserin Efficacy for the Treatment of Impulse Control Disorders in Parkinson's Disease</t>
   </si>
   <si>
-    <t>Risk Stratification of Hepatocarcinogenesis Using a Deep Learning Based Clinical, Biological and Ultrasound Model in High-risk Patients</t>
-  </si>
-  <si>
-    <t>Intravenous Immunoglobulins for Prevention of BKV Infection in Kidney Transplant Recipients According to BKV Genotype-specific Neutralizing Antibody Titers at the Day of Transplantation: A Multicenter Study</t>
-  </si>
-  <si>
-    <t>Transperineal, MRI-guided, Prostate Biopsy: First Step to Focal Treatment of Prostate Cancer</t>
-  </si>
-  <si>
-    <t>Lyme Borreliosis and Early Cutaneous Diagnostic</t>
-  </si>
-  <si>
-    <t>Multicenter Randomized Two-arms Study Evaluating the BK Viral Clearance in Kidney Transplant Recipients With BK Viremia After Reduction of Immunosuppression Alone vs. Reduction of Immunosuppression and Replacement of Mycophenolate Mofetil by Everolimus</t>
-  </si>
-  <si>
-    <t>Identification of Sentinel Lymph Node (SLN) in Breast Cancer Care: Clinical and Economical Evaluation of a Double Method Using Isotope and Methylene Blue Dye Injection.</t>
-  </si>
-  <si>
-    <t>Phenotypic Characteristics and Transcriptomas of B Lymphocytes During Non Active Systemic Lupus Erythematosus</t>
-  </si>
-  <si>
-    <t>Osteopenia and Osteoporosis in HIV Infection. Prospective BMD Measurement in Antiretroviral (ARV) Treated and Untreated HIV-1 Infected Patients</t>
+    <t>Study of pimavanserin efficacy for the treatment of impulse control disorders in Parkinson's disease</t>
   </si>
   <si>
     <t>EVALUATION D'UN GEL DE MORPHINE ORAL DANS LES MUCITES CHIMIOINDUITES DE L'ENFANT ET DU JEUNE ADULTE</t>
-  </si>
-  <si>
-    <t>Study of pimavanserin efficacy for the treatment of impulse control disorders in Parkinson's disease</t>
   </si>
   <si>
     <t>Pilot study on doxorubicin kinetic distribution during arterial chemoembolization 
  Etude pilote de la cinétique de distribution de la Doxorubicine lors de la chimio-embolisation artérielle</t>
   </si>
   <si>
+    <t>Identification of Sentinel Lymph Node (SLN) in Breast Cancer Care: Clinical and Economical Evaluation of a Double Method Using Isotope and Methylene Blue Dye Injection.</t>
+  </si>
+  <si>
+    <t>Phenotypic Characteristics and Transcriptomas of B Lymphocytes During Non Active Systemic Lupus Erythematosus</t>
+  </si>
+  <si>
+    <t>Osteopenia and Osteoporosis in HIV Infection. Prospective BMD Measurement in Antiretroviral (ARV) Treated and Untreated HIV-1 Infected Patients</t>
+  </si>
+  <si>
     <t>ibid</t>
   </si>
   <si>
+    <t>ROC</t>
+  </si>
+  <si>
     <t>RAPIRI</t>
   </si>
   <si>
-    <t>ROC</t>
+    <t>ECHOFUSION</t>
   </si>
   <si>
     <t>LUMI</t>
   </si>
   <si>
-    <t>ECHOFUSION</t>
+    <t>VISLISI</t>
+  </si>
+  <si>
+    <t>IMMERSION</t>
   </si>
   <si>
     <t>FFSI</t>
   </si>
   <si>
-    <t>IMMERSION</t>
-  </si>
-  <si>
     <t>Neuro-Tracto</t>
   </si>
   <si>
+    <t>CRYOREIN</t>
+  </si>
+  <si>
     <t>FLARIOC</t>
-  </si>
-  <si>
-    <t>VISLISI</t>
-  </si>
-  <si>
-    <t>CRYOREIN</t>
-  </si>
-  <si>
-    <t>SORKYSA</t>
   </si>
   <si>
     <t>AMOrSchiz</t>
@@ -808,76 +805,88 @@
  HEPOIRINE</t>
   </si>
   <si>
+    <t>SORKYSA</t>
+  </si>
+  <si>
     <t>CRYODESMO01</t>
   </si>
   <si>
+    <t>ETHNOPARK</t>
+  </si>
+  <si>
+    <t>RESMO</t>
+  </si>
+  <si>
+    <t>HEA vs Blood patch</t>
+  </si>
+  <si>
     <t>ETAP</t>
   </si>
   <si>
-    <t>HEA vs Blood patch</t>
-  </si>
-  <si>
     <t>Pilot pCLE</t>
   </si>
   <si>
+    <t>PERFECT</t>
+  </si>
+  <si>
     <t>ETO VD PERIOP</t>
   </si>
   <si>
-    <t>PERFECT</t>
-  </si>
-  <si>
-    <t>RESMO</t>
-  </si>
-  <si>
-    <t>ETHNOPARK</t>
+    <t>DICEP</t>
+  </si>
+  <si>
+    <t>TYSADIFF</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>TSASDI</t>
   </si>
   <si>
     <t>CHRONOSOMNO</t>
   </si>
   <si>
-    <t>TSASDI</t>
-  </si>
-  <si>
-    <t>PIM</t>
-  </si>
-  <si>
     <t>CineDoxo</t>
   </si>
   <si>
-    <t>DICEP</t>
-  </si>
-  <si>
-    <t>TYSADIFF</t>
+    <t>3D-HAPPI</t>
   </si>
   <si>
     <t>Reduc@home</t>
   </si>
   <si>
-    <t>3D-HAPPI</t>
-  </si>
-  <si>
     <t>Bartélémis</t>
   </si>
   <si>
+    <t>SeroCoV-HUS</t>
+  </si>
+  <si>
+    <t>CONTORTHO</t>
+  </si>
+  <si>
+    <t>MBSR</t>
+  </si>
+  <si>
+    <t>ScopeGuide</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
     <t>TractoCA</t>
   </si>
   <si>
     <t>Bariatric Ambu</t>
   </si>
   <si>
-    <t>CONTORTHO</t>
-  </si>
-  <si>
-    <t>ScopeGuide</t>
-  </si>
-  <si>
-    <t>MBSR</t>
-  </si>
-  <si>
-    <t>SeroCoV-HUS</t>
-  </si>
-  <si>
-    <t>REST</t>
+    <t>REDASUR</t>
+  </si>
+  <si>
+    <t>HYPO</t>
+  </si>
+  <si>
+    <t>EndoMouv</t>
   </si>
   <si>
     <t>CRIRIN</t>
@@ -889,48 +898,39 @@
     <t>SWALL-E</t>
   </si>
   <si>
-    <t>REDASUR</t>
-  </si>
-  <si>
-    <t>HYPO</t>
-  </si>
-  <si>
-    <t>EndoMouv</t>
+    <t>OCTISS</t>
+  </si>
+  <si>
+    <t>MRI-TULSAP</t>
   </si>
   <si>
     <t>SELF-MCL</t>
   </si>
   <si>
+    <t>MORPHEE 2</t>
+  </si>
+  <si>
     <t>PlasmaFaisa</t>
   </si>
   <si>
-    <t>OCTISS</t>
-  </si>
-  <si>
     <t>Get Ready</t>
   </si>
   <si>
-    <t>MRI-TULSAP</t>
-  </si>
-  <si>
-    <t>MORPHEE 2</t>
+    <t>STARHE</t>
+  </si>
+  <si>
+    <t>BKANIG</t>
+  </si>
+  <si>
+    <t>BK EVER</t>
+  </si>
+  <si>
+    <t>DIABOLYC</t>
   </si>
   <si>
     <t>PIMPARK</t>
   </si>
   <si>
-    <t>STARHE</t>
-  </si>
-  <si>
-    <t>BKANIG</t>
-  </si>
-  <si>
-    <t>DIABOLYC</t>
-  </si>
-  <si>
-    <t>BK EVER</t>
-  </si>
-  <si>
     <t>MorphinOGel</t>
   </si>
   <si>
@@ -952,10 +952,10 @@
     <t>BEHAVIORAL</t>
   </si>
   <si>
+    <t>BIOLOGICAL</t>
+  </si>
+  <si>
     <t>OTHER</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL</t>
   </si>
   <si>
     <t>GENETIC</t>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1414,15 +1414,15 @@
         <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1434,7 +1434,7 @@
         <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1493,11 +1493,8 @@
       <c r="G8" t="s">
         <v>149</v>
       </c>
-      <c r="H8" t="s">
-        <v>247</v>
-      </c>
       <c r="I8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1516,8 +1513,11 @@
       <c r="G9" t="s">
         <v>150</v>
       </c>
+      <c r="H9" t="s">
+        <v>247</v>
+      </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1597,7 +1597,7 @@
         <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1637,7 +1637,7 @@
         <v>156</v>
       </c>
       <c r="I15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1676,19 +1676,16 @@
       <c r="G17" t="s">
         <v>158</v>
       </c>
-      <c r="H17" t="s">
-        <v>248</v>
-      </c>
       <c r="I17" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1699,6 +1696,9 @@
       <c r="G18" t="s">
         <v>159</v>
       </c>
+      <c r="H18" t="s">
+        <v>248</v>
+      </c>
       <c r="I18" t="s">
         <v>306</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1740,7 +1740,7 @@
         <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1760,15 +1760,15 @@
         <v>162</v>
       </c>
       <c r="I21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1803,7 +1803,7 @@
         <v>164</v>
       </c>
       <c r="I23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1823,7 +1823,7 @@
         <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1863,7 +1863,7 @@
         <v>167</v>
       </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1883,7 +1883,7 @@
         <v>168</v>
       </c>
       <c r="I27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1903,7 +1903,7 @@
         <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1923,15 +1923,15 @@
         <v>170</v>
       </c>
       <c r="I29" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -1942,8 +1942,11 @@
       <c r="G30" t="s">
         <v>171</v>
       </c>
+      <c r="H30" t="s">
+        <v>250</v>
+      </c>
       <c r="I30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1953,8 +1956,8 @@
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
-        <v>45</v>
+      <c r="D31" t="s">
+        <v>114</v>
       </c>
       <c r="F31" t="s">
         <v>133</v>
@@ -1962,12 +1965,6 @@
       <c r="G31" t="s">
         <v>172</v>
       </c>
-      <c r="H31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I31" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
@@ -1977,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
         <v>133</v>
@@ -1985,19 +1982,22 @@
       <c r="G32" t="s">
         <v>173</v>
       </c>
+      <c r="H32" t="s">
+        <v>251</v>
+      </c>
       <c r="I32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
         <v>133</v>
@@ -2006,7 +2006,7 @@
         <v>174</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2016,8 +2016,8 @@
       <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="s">
-        <v>114</v>
+      <c r="C34" t="s">
+        <v>47</v>
       </c>
       <c r="F34" t="s">
         <v>133</v>
@@ -2025,6 +2025,9 @@
       <c r="G34" t="s">
         <v>175</v>
       </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -2042,11 +2045,8 @@
       <c r="G35" t="s">
         <v>176</v>
       </c>
-      <c r="H35" t="s">
-        <v>251</v>
-      </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2065,16 +2065,19 @@
       <c r="G36" t="s">
         <v>177</v>
       </c>
+      <c r="H36" t="s">
+        <v>252</v>
+      </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2086,10 +2089,10 @@
         <v>178</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2108,19 +2111,16 @@
       <c r="G38" t="s">
         <v>179</v>
       </c>
-      <c r="H38" t="s">
-        <v>253</v>
-      </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2201,15 +2201,15 @@
         <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -2224,15 +2224,15 @@
         <v>257</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -2243,16 +2243,19 @@
       <c r="G44" t="s">
         <v>185</v>
       </c>
+      <c r="H44" t="s">
+        <v>258</v>
+      </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -2263,11 +2266,8 @@
       <c r="G45" t="s">
         <v>186</v>
       </c>
-      <c r="H45" t="s">
-        <v>258</v>
-      </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2286,11 +2286,8 @@
       <c r="G46" t="s">
         <v>187</v>
       </c>
-      <c r="H46" t="s">
-        <v>259</v>
-      </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2300,8 +2297,8 @@
       <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="C47" t="s">
-        <v>60</v>
+      <c r="D47" t="s">
+        <v>115</v>
       </c>
       <c r="F47" t="s">
         <v>135</v>
@@ -2309,8 +2306,8 @@
       <c r="G47" t="s">
         <v>188</v>
       </c>
-      <c r="I47" t="s">
-        <v>305</v>
+      <c r="H47" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2320,8 +2317,8 @@
       <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="C48" t="s">
-        <v>61</v>
+      <c r="D48" t="s">
+        <v>116</v>
       </c>
       <c r="F48" t="s">
         <v>135</v>
@@ -2329,19 +2326,19 @@
       <c r="G48" t="s">
         <v>189</v>
       </c>
-      <c r="I48" t="s">
-        <v>309</v>
+      <c r="H48" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
         <v>135</v>
@@ -2349,19 +2346,22 @@
       <c r="G49" t="s">
         <v>190</v>
       </c>
+      <c r="H49" t="s">
+        <v>261</v>
+      </c>
       <c r="I49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>115</v>
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
       </c>
       <c r="F50" t="s">
         <v>135</v>
@@ -2369,8 +2369,8 @@
       <c r="G50" t="s">
         <v>191</v>
       </c>
-      <c r="H50" t="s">
-        <v>260</v>
+      <c r="I50" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2380,8 +2380,8 @@
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="D51" t="s">
-        <v>116</v>
+      <c r="C51" t="s">
+        <v>62</v>
       </c>
       <c r="F51" t="s">
         <v>135</v>
@@ -2389,8 +2389,8 @@
       <c r="G51" t="s">
         <v>192</v>
       </c>
-      <c r="H51" t="s">
-        <v>261</v>
+      <c r="I51" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2418,10 +2418,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
@@ -2429,14 +2429,11 @@
       <c r="F53" t="s">
         <v>136</v>
       </c>
-      <c r="G53" t="s">
-        <v>194</v>
-      </c>
       <c r="H53" t="s">
         <v>263</v>
       </c>
       <c r="I53" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2446,40 +2443,37 @@
       <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
-        <v>117</v>
+      <c r="C54" t="s">
+        <v>65</v>
       </c>
       <c r="F54" t="s">
         <v>136</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
-      </c>
-      <c r="H54" t="s">
-        <v>264</v>
+        <v>194</v>
+      </c>
+      <c r="I54" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
         <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2490,16 +2484,16 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
         <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I56" t="s">
         <v>305</v>
@@ -2507,22 +2501,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
       </c>
       <c r="F57" t="s">
         <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>198</v>
-      </c>
-      <c r="I57" t="s">
-        <v>310</v>
+        <v>197</v>
+      </c>
+      <c r="H57" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2539,13 +2533,13 @@
         <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2562,18 +2556,18 @@
         <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>70</v>
@@ -2582,21 +2576,21 @@
         <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I60" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>71</v>
@@ -2604,11 +2598,14 @@
       <c r="F61" t="s">
         <v>136</v>
       </c>
+      <c r="G61" t="s">
+        <v>201</v>
+      </c>
       <c r="H61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I61" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2627,8 +2624,11 @@
       <c r="G62" t="s">
         <v>202</v>
       </c>
+      <c r="H62" t="s">
+        <v>269</v>
+      </c>
       <c r="I62" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2648,7 +2648,7 @@
         <v>203</v>
       </c>
       <c r="I63" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2671,7 +2671,7 @@
         <v>270</v>
       </c>
       <c r="I64" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2681,8 +2681,8 @@
       <c r="B65" t="s">
         <v>13</v>
       </c>
-      <c r="C65" t="s">
-        <v>75</v>
+      <c r="D65" t="s">
+        <v>118</v>
       </c>
       <c r="F65" t="s">
         <v>137</v>
@@ -2692,9 +2692,6 @@
       </c>
       <c r="H65" t="s">
         <v>271</v>
-      </c>
-      <c r="I65" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2705,7 +2702,7 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
         <v>137</v>
@@ -2728,7 +2725,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F67" t="s">
         <v>137</v>
@@ -2740,7 +2737,7 @@
         <v>273</v>
       </c>
       <c r="I67" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2751,7 +2748,7 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s">
         <v>137</v>
@@ -2763,7 +2760,7 @@
         <v>274</v>
       </c>
       <c r="I68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2773,8 +2770,8 @@
       <c r="B69" t="s">
         <v>13</v>
       </c>
-      <c r="D69" t="s">
-        <v>118</v>
+      <c r="C69" t="s">
+        <v>78</v>
       </c>
       <c r="F69" t="s">
         <v>137</v>
@@ -2785,13 +2782,16 @@
       <c r="H69" t="s">
         <v>275</v>
       </c>
+      <c r="I69" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>79</v>
@@ -2802,19 +2802,16 @@
       <c r="G70" t="s">
         <v>210</v>
       </c>
-      <c r="H70" t="s">
-        <v>276</v>
-      </c>
       <c r="I70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>80</v>
@@ -2825,6 +2822,9 @@
       <c r="G71" t="s">
         <v>211</v>
       </c>
+      <c r="H71" t="s">
+        <v>276</v>
+      </c>
       <c r="I71" t="s">
         <v>305</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>277</v>
       </c>
       <c r="I72" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2877,10 +2877,10 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>83</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>84</v>
@@ -2918,7 +2918,7 @@
         <v>280</v>
       </c>
       <c r="I75" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2941,7 +2941,7 @@
         <v>281</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2969,10 +2969,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
         <v>87</v>
@@ -2983,8 +2983,11 @@
       <c r="G78" t="s">
         <v>218</v>
       </c>
+      <c r="H78" t="s">
+        <v>283</v>
+      </c>
       <c r="I78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3003,19 +3006,16 @@
       <c r="G79" t="s">
         <v>219</v>
       </c>
-      <c r="H79" t="s">
-        <v>283</v>
-      </c>
       <c r="I79" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>89</v>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>90</v>
@@ -3053,7 +3053,7 @@
         <v>285</v>
       </c>
       <c r="I81" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3076,7 +3076,7 @@
         <v>286</v>
       </c>
       <c r="I82" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3099,7 +3099,7 @@
         <v>287</v>
       </c>
       <c r="I83" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3122,7 +3122,7 @@
         <v>288</v>
       </c>
       <c r="I84" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3145,7 +3145,7 @@
         <v>289</v>
       </c>
       <c r="I85" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3168,7 +3168,7 @@
         <v>290</v>
       </c>
       <c r="I86" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3191,7 +3191,7 @@
         <v>291</v>
       </c>
       <c r="I87" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3214,7 +3214,7 @@
         <v>292</v>
       </c>
       <c r="I88" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3233,8 +3233,11 @@
       <c r="G89" t="s">
         <v>229</v>
       </c>
+      <c r="H89" t="s">
+        <v>293</v>
+      </c>
       <c r="I89" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3253,11 +3256,8 @@
       <c r="G90" t="s">
         <v>230</v>
       </c>
-      <c r="H90" t="s">
-        <v>293</v>
-      </c>
       <c r="I90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3280,7 +3280,7 @@
         <v>294</v>
       </c>
       <c r="I91" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3303,7 +3303,7 @@
         <v>295</v>
       </c>
       <c r="I92" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3326,7 +3326,7 @@
         <v>296</v>
       </c>
       <c r="I93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3349,7 +3349,7 @@
         <v>297</v>
       </c>
       <c r="I94" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3372,7 +3372,7 @@
         <v>298</v>
       </c>
       <c r="I95" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3385,6 +3385,9 @@
       <c r="C96" t="s">
         <v>105</v>
       </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
       <c r="F96" t="s">
         <v>142</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>299</v>
       </c>
       <c r="I96" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3408,9 +3411,6 @@
       <c r="C97" t="s">
         <v>106</v>
       </c>
-      <c r="E97" t="s">
-        <v>122</v>
-      </c>
       <c r="F97" t="s">
         <v>142</v>
       </c>
@@ -3440,6 +3440,9 @@
       <c r="G98" t="s">
         <v>238</v>
       </c>
+      <c r="H98" t="s">
+        <v>301</v>
+      </c>
       <c r="I98" t="s">
         <v>305</v>
       </c>
@@ -3460,9 +3463,6 @@
       <c r="G99" t="s">
         <v>239</v>
       </c>
-      <c r="H99" t="s">
-        <v>301</v>
-      </c>
       <c r="I99" t="s">
         <v>305</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>302</v>
       </c>
       <c r="I100" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3497,14 +3497,14 @@
       <c r="B101" t="s">
         <v>13</v>
       </c>
-      <c r="C101" t="s">
-        <v>110</v>
+      <c r="D101" t="s">
+        <v>119</v>
       </c>
       <c r="G101" t="s">
         <v>241</v>
       </c>
-      <c r="I101" t="s">
-        <v>305</v>
+      <c r="H101" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3514,14 +3514,14 @@
       <c r="B102" t="s">
         <v>13</v>
       </c>
-      <c r="C102" t="s">
-        <v>111</v>
+      <c r="D102" t="s">
+        <v>120</v>
       </c>
       <c r="G102" t="s">
         <v>242</v>
       </c>
-      <c r="I102" t="s">
-        <v>305</v>
+      <c r="H102" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3531,14 +3531,14 @@
       <c r="B103" t="s">
         <v>13</v>
       </c>
-      <c r="C103" t="s">
-        <v>112</v>
+      <c r="D103" t="s">
+        <v>121</v>
       </c>
       <c r="G103" t="s">
         <v>243</v>
       </c>
-      <c r="I103" t="s">
-        <v>305</v>
+      <c r="H103" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3548,14 +3548,14 @@
       <c r="B104" t="s">
         <v>13</v>
       </c>
-      <c r="D104" t="s">
-        <v>119</v>
+      <c r="C104" t="s">
+        <v>110</v>
       </c>
       <c r="G104" t="s">
         <v>244</v>
       </c>
-      <c r="H104" t="s">
-        <v>303</v>
+      <c r="I104" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3565,14 +3565,14 @@
       <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="D105" t="s">
-        <v>120</v>
+      <c r="C105" t="s">
+        <v>111</v>
       </c>
       <c r="G105" t="s">
         <v>245</v>
       </c>
-      <c r="H105" t="s">
-        <v>298</v>
+      <c r="I105" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3582,14 +3582,14 @@
       <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="D106" t="s">
-        <v>121</v>
+      <c r="C106" t="s">
+        <v>112</v>
       </c>
       <c r="G106" t="s">
         <v>246</v>
       </c>
-      <c r="H106" t="s">
-        <v>304</v>
+      <c r="I106" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage2/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="326">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00295113</t>
@@ -73,15 +73,15 @@
     <t>NCT00213915</t>
   </si>
   <si>
+    <t>NCT02091791</t>
+  </si>
+  <si>
     <t>NCT00213759</t>
   </si>
   <si>
     <t>NCT00213850</t>
   </si>
   <si>
-    <t>NCT02091791</t>
-  </si>
-  <si>
     <t>NCT00357487</t>
   </si>
   <si>
@@ -97,94 +97,100 @@
     <t>NCT01013727</t>
   </si>
   <si>
+    <t>NCT00434265</t>
+  </si>
+  <si>
+    <t>NCT00400413</t>
+  </si>
+  <si>
+    <t>NCT00372268</t>
+  </si>
+  <si>
+    <t>NCT00213798</t>
+  </si>
+  <si>
     <t>NCT00382707</t>
   </si>
   <si>
-    <t>NCT00213798</t>
-  </si>
-  <si>
-    <t>NCT00434265</t>
-  </si>
-  <si>
-    <t>NCT00372268</t>
-  </si>
-  <si>
-    <t>NCT00400413</t>
+    <t>NCT01282697</t>
+  </si>
+  <si>
+    <t>NCT00576134</t>
+  </si>
+  <si>
+    <t>NCT01000441</t>
+  </si>
+  <si>
+    <t>NCT00446953</t>
   </si>
   <si>
     <t>NCT02117206</t>
   </si>
   <si>
-    <t>NCT01000441</t>
-  </si>
-  <si>
-    <t>NCT00446953</t>
-  </si>
-  <si>
-    <t>NCT00576134</t>
-  </si>
-  <si>
-    <t>NCT01282697</t>
-  </si>
-  <si>
     <t>NCT01498211</t>
   </si>
   <si>
     <t>NCT01960478</t>
   </si>
   <si>
+    <t>NCT00757302</t>
+  </si>
+  <si>
+    <t>NCT01992835</t>
+  </si>
+  <si>
+    <t>NCT00854698</t>
+  </si>
+  <si>
+    <t>NCT00792194</t>
+  </si>
+  <si>
     <t>NCT00813683</t>
   </si>
   <si>
-    <t>NCT00757302</t>
-  </si>
-  <si>
-    <t>NCT00792194</t>
-  </si>
-  <si>
-    <t>NCT01992835</t>
-  </si>
-  <si>
-    <t>NCT00854698</t>
+    <t>NCT02150174</t>
+  </si>
+  <si>
+    <t>NCT01942343</t>
+  </si>
+  <si>
+    <t>NCT02478528</t>
   </si>
   <si>
     <t>NCT02563444</t>
   </si>
   <si>
-    <t>NCT02478528</t>
-  </si>
-  <si>
-    <t>NCT01942343</t>
-  </si>
-  <si>
     <t>NCT01760512</t>
   </si>
   <si>
-    <t>NCT02150174</t>
+    <t>NCT02409953</t>
+  </si>
+  <si>
+    <t>NCT00384540</t>
+  </si>
+  <si>
+    <t>NCT01471002</t>
+  </si>
+  <si>
+    <t>NCT01980420</t>
+  </si>
+  <si>
+    <t>NCT02582346</t>
+  </si>
+  <si>
+    <t>NCT01881399</t>
+  </si>
+  <si>
+    <t>NCT01329302</t>
   </si>
   <si>
     <t>NCT02026895</t>
   </si>
   <si>
-    <t>NCT02409953</t>
-  </si>
-  <si>
-    <t>NCT00384540</t>
-  </si>
-  <si>
-    <t>NCT01980420</t>
-  </si>
-  <si>
-    <t>NCT01329302</t>
-  </si>
-  <si>
-    <t>NCT02582346</t>
-  </si>
-  <si>
-    <t>NCT01471002</t>
-  </si>
-  <si>
-    <t>NCT01881399</t>
+    <t>NCT00793676</t>
+  </si>
+  <si>
+    <t>NCT02773589</t>
   </si>
   <si>
     <t>NCT02570594</t>
@@ -196,57 +202,51 @@
     <t>NCT01312649</t>
   </si>
   <si>
+    <t>NCT02476305</t>
+  </si>
+  <si>
     <t>NCT02011802</t>
   </si>
   <si>
-    <t>NCT00793676</t>
-  </si>
-  <si>
-    <t>NCT02773589</t>
-  </si>
-  <si>
-    <t>NCT02476305</t>
+    <t>NCT02626091</t>
+  </si>
+  <si>
+    <t>NCT02030470</t>
+  </si>
+  <si>
+    <t>NCT02552004</t>
+  </si>
+  <si>
+    <t>NCT02472197</t>
+  </si>
+  <si>
+    <t>NCT02570724</t>
+  </si>
+  <si>
+    <t>NCT01782235</t>
+  </si>
+  <si>
+    <t>NCT02887560</t>
   </si>
   <si>
     <t>NCT02815800</t>
   </si>
   <si>
+    <t>NCT03946215</t>
+  </si>
+  <si>
     <t>NCT01698203</t>
   </si>
   <si>
-    <t>NCT02030470</t>
-  </si>
-  <si>
-    <t>NCT02472197</t>
-  </si>
-  <si>
-    <t>NCT01782235</t>
-  </si>
-  <si>
-    <t>NCT02570724</t>
-  </si>
-  <si>
-    <t>NCT02552004</t>
-  </si>
-  <si>
-    <t>NCT02626091</t>
-  </si>
-  <si>
-    <t>NCT02887560</t>
-  </si>
-  <si>
-    <t>NCT03946215</t>
-  </si>
-  <si>
     <t>NCT03427593</t>
   </si>
   <si>
+    <t>NCT02747056</t>
+  </si>
+  <si>
     <t>NCT01548729</t>
   </si>
   <si>
-    <t>NCT02747056</t>
-  </si>
-  <si>
     <t>NCT02858765</t>
   </si>
   <si>
@@ -256,94 +256,97 @@
     <t>NCT00476281</t>
   </si>
   <si>
+    <t>NCT03985345</t>
+  </si>
+  <si>
+    <t>NCT03834181</t>
+  </si>
+  <si>
     <t>NCT03382327</t>
   </si>
   <si>
-    <t>NCT03985345</t>
-  </si>
-  <si>
-    <t>NCT03834181</t>
+    <t>NCT03881436</t>
+  </si>
+  <si>
+    <t>NCT04362358</t>
+  </si>
+  <si>
+    <t>NCT04263818</t>
   </si>
   <si>
     <t>NCT04441684</t>
   </si>
   <si>
+    <t>NCT02900326</t>
+  </si>
+  <si>
     <t>NCT03954145</t>
   </si>
   <si>
-    <t>NCT02900326</t>
-  </si>
-  <si>
-    <t>NCT04263818</t>
-  </si>
-  <si>
-    <t>NCT04362358</t>
-  </si>
-  <si>
     <t>NCT03573752</t>
   </si>
   <si>
-    <t>NCT03881436</t>
-  </si>
-  <si>
     <t>NCT04423575</t>
   </si>
   <si>
     <t>NCT04480385</t>
   </si>
   <si>
+    <t>NCT03949153</t>
+  </si>
+  <si>
+    <t>NCT05178108</t>
+  </si>
+  <si>
     <t>NCT05044585</t>
   </si>
   <si>
     <t>NCT03458403</t>
   </si>
   <si>
-    <t>NCT03949153</t>
-  </si>
-  <si>
     <t>NCT05357729</t>
   </si>
   <si>
-    <t>NCT05178108</t>
+    <t>NCT05707247</t>
+  </si>
+  <si>
+    <t>NCT04616287</t>
+  </si>
+  <si>
+    <t>NCT03996005</t>
   </si>
   <si>
     <t>NCT04532151</t>
   </si>
   <si>
-    <t>NCT03996005</t>
+    <t>NCT04580563</t>
+  </si>
+  <si>
+    <t>NCT04153721</t>
   </si>
   <si>
     <t>NCT02072642</t>
   </si>
   <si>
-    <t>NCT04616287</t>
-  </si>
-  <si>
-    <t>NCT05707247</t>
-  </si>
-  <si>
-    <t>NCT04580563</t>
-  </si>
-  <si>
-    <t>NCT04153721</t>
+    <t>NCT03216967</t>
+  </si>
+  <si>
+    <t>NCT04222023</t>
   </si>
   <si>
     <t>NCT04802954</t>
   </si>
   <si>
-    <t>NCT04222023</t>
-  </si>
-  <si>
-    <t>NCT03216967</t>
+    <t>NCT02651948</t>
+  </si>
+  <si>
+    <t>NCT03947216</t>
   </si>
   <si>
     <t>NCT02414789</t>
   </si>
   <si>
-    <t>NCT02651948</t>
-  </si>
-  <si>
-    <t>NCT03947216</t>
+    <t>NCT04612192</t>
   </si>
   <si>
     <t>NCT00314405</t>
@@ -361,27 +364,36 @@
     <t>2013-000905-22</t>
   </si>
   <si>
+    <t>2015-003138-28</t>
+  </si>
+  <si>
     <t>2013-004737-33</t>
   </si>
   <si>
-    <t>2015-003138-28</t>
-  </si>
-  <si>
     <t>2012-000809-67</t>
   </si>
   <si>
+    <t>2012-002045-37</t>
+  </si>
+  <si>
     <t>2014-003209-14</t>
   </si>
   <si>
+    <t>2018-002163-26</t>
+  </si>
+  <si>
+    <t>2013-001686-16</t>
+  </si>
+  <si>
+    <t>2018-003521-28</t>
+  </si>
+  <si>
+    <t>2019-004769-41</t>
+  </si>
+  <si>
     <t>2016-001229-15</t>
   </si>
   <si>
-    <t>2013-001686-16</t>
-  </si>
-  <si>
-    <t>2018-002163-26</t>
-  </si>
-  <si>
     <t>2024-515243-37-00</t>
   </si>
   <si>
@@ -445,21 +457,24 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Interest of a 30 Minutes' Intermittent Work Exercise Test in Patients With Chronic Obstructive Pulmonary Disease: Cardiac and Pulmonary Functions</t>
   </si>
   <si>
     <t>Effects of Oral Chronic L-Arginine Supplementation on Exercise and Renal Function of Heart Transplant Recipients</t>
   </si>
   <si>
+    <t>High Versus Low Level of Lumbar Traction in Acute Lumbar Sciatica Due to Disc Herniation</t>
+  </si>
+  <si>
     <t>Prevention Trial of Nosocomial Infections in Neutropenic Prematures With G-CSF</t>
   </si>
   <si>
     <t>Reference Values for Respiratory Resistance Measured by the Interrupter Technique in Adults</t>
   </si>
   <si>
-    <t>High Versus Low Level of Lumbar Traction in Acute Lumbar Sciatica Due to Disc Herniation</t>
-  </si>
-  <si>
     <t>Sentinel Lymph Node Identification in Case of Breast Cancer. Clinical Evaluation of a New Intra-operative Probe and a Mini Gamma Camera</t>
   </si>
   <si>
@@ -475,101 +490,110 @@
     <t>Functional Neuroimaging of Postural Reconstruction: Preliminary Study on a Dorsiflexion Motion of the Ankle and Comparison Between an Arm Following Postural Reconstruction Program and a Comparator Arm Following a Muscular Stretching Program</t>
   </si>
   <si>
+    <t>OBESITY, PHYSICAL INACTIVITY OR DIETARY FAT ? Role of Physical Activity in the Trafficking of Dietary Fatty Acids Varying in Length and Saturation Degree.</t>
+  </si>
+  <si>
+    <t>Phonological Perception and Learning to Read : the Neuroanatomy of Reading in Congenitally Deaf Persons</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effects of Conditioning of Insufflated Gas on the Core Temperature and the Post-operative Pain During Laparoscopic Surgery</t>
+  </si>
+  <si>
+    <t>Detection of Plasma DNA by Allelotyping in Non Small Cell and Small Cell Lung Cancer Patients. Evolution During Treatment and Follow-up.</t>
+  </si>
+  <si>
     <t>Transcranial Magnetic Stimulation and Anti-epileptic Effect: Optimization and Evaluation With Electrophysiology.</t>
   </si>
   <si>
-    <t>Detection of Plasma DNA by Allelotyping in Non Small Cell and Small Cell Lung Cancer Patients. Evolution During Treatment and Follow-up.</t>
-  </si>
-  <si>
-    <t>OBESITY, PHYSICAL INACTIVITY OR DIETARY FAT ? Role of Physical Activity in the Trafficking of Dietary Fatty Acids Varying in Length and Saturation Degree.</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effects of Conditioning of Insufflated Gas on the Core Temperature and the Post-operative Pain During Laparoscopic Surgery</t>
-  </si>
-  <si>
-    <t>Phonological Perception and Learning to Read : the Neuroanatomy of Reading in Congenitally Deaf Persons</t>
+    <t>Etude de phase I associant la rapamycine et l’irinotecan dans toutes tumeurs solides réfractaires de l’enfant</t>
+  </si>
+  <si>
+    <t>Phase I Clinical Trial of Rapamycin and Irinotecan in Pediatric Patients With Refractory Solid Tumors</t>
+  </si>
+  <si>
+    <t>Artificial Larynx : Intralaryngeal Prosthesis With Valve in Major Swallowing Troubles</t>
+  </si>
+  <si>
+    <t>Rotation or Change of Biotherapy After First Anti-TNF Treatment Failure for Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Interest in Programming Caesarean Section at 38 Weeks of Pregnancy With Antenatal Betamethasone to Prevent Neonatal Respiratory Distress and to Avoid Emergency Caesarean Section Before Planned Date.</t>
   </si>
   <si>
     <t>Protective Effects of L-arginine During Reperfusion by Femoropopliteal Bypass for Lower Limb Ischemic Syndrome in Humans</t>
   </si>
   <si>
-    <t>Rotation or Change of Biotherapy After First Anti-TNF Treatment Failure for Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Interest in Programming Caesarean Section at 38 Weeks of Pregnancy With Antenatal Betamethasone to Prevent Neonatal Respiratory Distress and to Avoid Emergency Caesarean Section Before Planned Date.</t>
-  </si>
-  <si>
-    <t>Etude de phase I associant la rapamycine et l’irinotecan dans toutes tumeurs solides réfractaires de l’enfant</t>
-  </si>
-  <si>
-    <t>Artificial Larynx : Intralaryngeal Prosthesis With Valve in Major Swallowing Troubles</t>
-  </si>
-  <si>
-    <t>Phase I Clinical Trial of Rapamycin and Irinotecan in Pediatric Patients With Refractory Solid Tumors</t>
-  </si>
-  <si>
     <t>Establishement of Normative Intra-epidermal Nerve Fiber Density Using Skin</t>
   </si>
   <si>
     <t>Predictive Value of Copeptin in the Diagnosis of Acute Ischemic Stroke</t>
   </si>
   <si>
+    <t>Evaluation of a New Intraoperative Gamma Camera for the Sentinel Lymph Node Procedure in Breast Cancer</t>
+  </si>
+  <si>
+    <t>Resolution of Allergic Inflammation: Identification and Kinetics of Specific Lipid Mediators During Nasal Allergen Challenge</t>
+  </si>
+  <si>
+    <t>Long-Term Effects of Aortic Valve Mismatch on Functional Ability and Remodeling the Left Ventricular After Aortic Valve Replacement Mechanics</t>
+  </si>
+  <si>
+    <t>Improvement of Aerobic Capacity in Cystic Fibrosis Patients With a One-year Home Training Period</t>
+  </si>
+  <si>
     <t>Study of Cephalic Version by Acupuncture for Breech Presentation.</t>
   </si>
   <si>
-    <t>Evaluation of a New Intraoperative Gamma Camera for the Sentinel Lymph Node Procedure in Breast Cancer</t>
-  </si>
-  <si>
-    <t>Improvement of Aerobic Capacity in Cystic Fibrosis Patients With a One-year Home Training Period</t>
-  </si>
-  <si>
-    <t>Resolution of Allergic Inflammation: Identification and Kinetics of Specific Lipid Mediators During Nasal Allergen Challenge</t>
-  </si>
-  <si>
-    <t>Long-Term Effects of Aortic Valve Mismatch on Functional Ability and Remodeling the Left Ventricular After Aortic Valve Replacement Mechanics</t>
-  </si>
-  <si>
-    <t>Interest in Using Ultrasound Fusion in Percutaneous Interventional Radiology</t>
+    <t>Retrieval Practice in Patients With Schizophrenia : an Exploratory Study Using Word Pairs</t>
+  </si>
+  <si>
+    <t>Etude de l'Effet du dropéridol et de l'Ondansetron Sur l'Incidence de l'Akathisie Post opératoire en Chirurgie Ambulatoire</t>
+  </si>
+  <si>
+    <t>Study of Effects of Light on the Vigilance and Cognitive Performance Following a Night Without Sleep</t>
   </si>
   <si>
     <t>à compléter 
  ETUDE DE L’EFFET DU DROPERIDOL ET DE L’ONDANSETRON SUR L’INCIDENCE DE L’AKATHISIE POST OPERATOIRE EN CHIRURGIE GYNECOLOGIQUE AMBULATOIRE</t>
   </si>
   <si>
-    <t>Study of Effects of Light on the Vigilance and Cognitive Performance Following a Night Without Sleep</t>
-  </si>
-  <si>
-    <t>Etude de l'Effet du dropéridol et de l'Ondansetron Sur l'Incidence de l'Akathisie Post opératoire en Chirurgie Ambulatoire</t>
+    <t>Interest in Using Ultrasound Fusion in Percutaneous Interventional Radiology</t>
   </si>
   <si>
     <t>Prospective, Single-blind, Randomized, Non-inferiority, and Controlled Study of Clinical and Health Economic Impact of Robot-assisted Surgery Versus Conventional Laparoscopy in Bariatric Surgery: the Case of Gastric Bypass</t>
   </si>
   <si>
-    <t>Retrieval Practice in Patients With Schizophrenia : an Exploratory Study Using Word Pairs</t>
+    <t>Effect of Immersion, Performed Under the Conditions of Obstetrical Dilatation Bath, on Diuresis and Hemodynamic Variables in Young Women</t>
+  </si>
+  <si>
+    <t>Allograft Vasculopathy After Heart Transplantation : Diagnostic Interest of Dobutamine Stress Echocardiography and Brain Natriuretic Peptide Coupling</t>
+  </si>
+  <si>
+    <t>Prospective Study to Evaluate the Efficacy of Percutaneous Cryoablation for Renal Tumours &lt; 4cm in Patients Who Are Not Candidates for Partial Nephrectomy</t>
+  </si>
+  <si>
+    <t>Prospective Study of the Impact of Sleeve Gastrectomy on Gastro-esophageal Junction Function</t>
+  </si>
+  <si>
+    <t>Assessment of Magnetic Resonance Imaging Neurography and Tractography for Preoperative Mapping of Pelvic Nerves</t>
+  </si>
+  <si>
+    <t>Fluorescence Cholangiography Versus Conventional Intraoperative Cholangiography for Visualization of Biliary Tract Anatomy : a Prospective, Controlled Study</t>
+  </si>
+  <si>
+    <t>Follicular Flushing for Poor Responder Patient in an Assisted Reproductive Technology Program: Flush Study</t>
   </si>
   <si>
     <t>Virulence of Staphylococcus Lugdunensis in Severe Infections</t>
   </si>
   <si>
-    <t>Effect of Immersion, Performed Under the Conditions of Obstetrical Dilatation Bath, on Diuresis and Hemodynamic Variables in Young Women</t>
-  </si>
-  <si>
-    <t>Allograft Vasculopathy After Heart Transplantation : Diagnostic Interest of Dobutamine Stress Echocardiography and Brain Natriuretic Peptide Coupling</t>
-  </si>
-  <si>
-    <t>Prospective Study of the Impact of Sleeve Gastrectomy on Gastro-esophageal Junction Function</t>
-  </si>
-  <si>
-    <t>Follicular Flushing for Poor Responder Patient in an Assisted Reproductive Technology Program: Flush Study</t>
-  </si>
-  <si>
-    <t>Assessment of Magnetic Resonance Imaging Neurography and Tractography for Preoperative Mapping of Pelvic Nerves</t>
-  </si>
-  <si>
-    <t>Prospective Study to Evaluate the Efficacy of Percutaneous Cryoablation for Renal Tumours &lt; 4cm in Patients Who Are Not Candidates for Partial Nephrectomy</t>
-  </si>
-  <si>
-    <t>Fluorescence Cholangiography Versus Conventional Intraoperative Cholangiography for Visualization of Biliary Tract Anatomy : a Prospective, Controlled Study</t>
+    <t>G Protein Coupled Receptor (GPCR)Signature as Biomarker of Chronic Pulmonary Inflammatory Diseases and of Therapeutic Follow-up</t>
+  </si>
+  <si>
+    <t>Prospective Evaluation of a New Approach to Perform an Esophageal Myotomy: the Transesophageal Submucosa Approach</t>
+  </si>
+  <si>
+    <t>Héparinothérapie pour la circulation extracorporelle en chirurgie cardiaque chez les patients obèses : étude prospective évaluant une posologie basée sur le poids idéal au C.H.U. de Strasbourg</t>
   </si>
   <si>
     <t>Autobiographical Memory Organization in Schizophrenia</t>
@@ -585,176 +609,178 @@
  Etude prospective randomisée multicentrique d’évaluation de la VILDagliptine associée à l’insuline sur le contrôle glycémique chez les patients hémoDIALysés diabétiques de type 2 : étude VILDDIAL</t>
   </si>
   <si>
-    <t>Héparinothérapie pour la circulation extracorporelle en chirurgie cardiaque chez les patients obèses : étude prospective évaluant une posologie basée sur le poids idéal au C.H.U. de Strasbourg</t>
+    <t>Evaluation of the Cryodestruction of Non Abdominopelvic Desmoid Tumors in Patients Progressing Despite Medical</t>
   </si>
   <si>
     <t>Sorbact TM: Effect of a Microbial Binding Dressing on Wound Healing After Pilonidal Sinus Excision</t>
   </si>
   <si>
-    <t>G Protein Coupled Receptor (GPCR)Signature as Biomarker of Chronic Pulmonary Inflammatory Diseases and of Therapeutic Follow-up</t>
-  </si>
-  <si>
-    <t>Prospective Evaluation of a New Approach to Perform an Esophageal Myotomy: the Transesophageal Submucosa Approach</t>
-  </si>
-  <si>
-    <t>Evaluation of the Cryodestruction of Non Abdominopelvic Desmoid Tumors in Patients Progressing Despite Medical</t>
+    <t>Perfusion Evaluation by Real-time Fluorescence-based Enhanced Reality of Anastomosis</t>
+  </si>
+  <si>
+    <t>Evaluation of Photodynamic Treatment FOTOSAN® Efficacy in Periodontology</t>
+  </si>
+  <si>
+    <t>Assessment of the Intraoperative Probe-based Confocal Laser Endomicroscopy in Digestive and Endocrine Surgery - a Pilot Study</t>
+  </si>
+  <si>
+    <t>Morcellator Versus Resectoscope in the Treatment of Uterine Polyps by Hysteroscopy</t>
+  </si>
+  <si>
+    <t>EFFICACITE CLINIQUE  ET VASOCONSTRICTION CEREBRALE INDUITES PAR BLOOD PATCH VERSUS INJECTION PÉRIDURALE D’UNE SOLUTION D’HYDROXYETHYLAMIDON (VOLUVEN) CHEZ DES PATIENTS PRESENTANT DES CEPHALEES INVALIDANTES DUES A UNE HYPOTENSION INTRACRANIENNE</t>
+  </si>
+  <si>
+    <t>Clinical Effect and Cerebral Vasoconstriction Induced After Epidural Blood Patch Versus Epidural Hydroxyethyl Starch Patch in Patients With Headache Due to Intracranial Hypotension</t>
+  </si>
+  <si>
+    <t>A Randomized, Double-blind, Parallel, Placebo-controlled Trial to Evaluate the Efficacy of Tocilizumab for the Treatment of Primary Sjögren's Syndrome.</t>
+  </si>
+  <si>
+    <t>Comparison by Transoesophageal Assessement of Systolic Right Ventricle Function Measures in Perioperative Care of Pulmonary Transplant.</t>
+  </si>
+  <si>
+    <t>Comparison of Cardiorespiratory Responses to Treadmill Running at Different Slopes in Well-trained Athletes</t>
   </si>
   <si>
     <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia: Continuous Wound Catheter Analgesia Associated With Intravenous Morphine Patient-Controlled-Analgesia (PCA)</t>
   </si>
   <si>
-    <t>Evaluation of Photodynamic Treatment FOTOSAN® Efficacy in Periodontology</t>
-  </si>
-  <si>
-    <t>Morcellator Versus Resectoscope in the Treatment of Uterine Polyps by Hysteroscopy</t>
-  </si>
-  <si>
-    <t>EFFICACITE CLINIQUE  ET VASOCONSTRICTION CEREBRALE INDUITES PAR BLOOD PATCH VERSUS INJECTION PÉRIDURALE D’UNE SOLUTION D’HYDROXYETHYLAMIDON (VOLUVEN) CHEZ DES PATIENTS PRESENTANT DES CEPHALEES INVALIDANTES DUES A UNE HYPOTENSION INTRACRANIENNE</t>
-  </si>
-  <si>
-    <t>A Randomized, Double-blind, Parallel, Placebo-controlled Trial to Evaluate the Efficacy of Tocilizumab for the Treatment of Primary Sjögren's Syndrome.</t>
-  </si>
-  <si>
-    <t>Clinical Effect and Cerebral Vasoconstriction Induced After Epidural Blood Patch Versus Epidural Hydroxyethyl Starch Patch in Patients With Headache Due to Intracranial Hypotension</t>
-  </si>
-  <si>
-    <t>Assessment of the Intraoperative Probe-based Confocal Laser Endomicroscopy in Digestive and Endocrine Surgery - a Pilot Study</t>
-  </si>
-  <si>
-    <t>Perfusion Evaluation by Real-time Fluorescence-based Enhanced Reality of Anastomosis</t>
-  </si>
-  <si>
-    <t>Comparison by Transoesophageal Assessement of Systolic Right Ventricle Function Measures in Perioperative Care of Pulmonary Transplant.</t>
-  </si>
-  <si>
-    <t>Comparison of Cardiorespiratory Responses to Treadmill Running at Different Slopes in Well-trained Athletes</t>
-  </si>
-  <si>
     <t>Phenotype-genotype Correlation in a Sub-population of Severe Primary Immunodeficiency With Lymphoproliferation and Neutropenia</t>
+  </si>
+  <si>
+    <t>Study of the Personal Identity in Adults With Autism Spectrum Disorder Without Intellectual Deficiency</t>
+  </si>
+  <si>
+    <t>Metabolic Efficiency of Combined Pancreatic Islet and Lung Transplant for the Treatment of End-Stage Cystic Fibrosis : a Pilot Study</t>
+  </si>
+  <si>
+    <t>Influence of Light on Sleep, Awakening, Electroencephalogram (EEG) and Cognitive Performances, and Medical Technology Assessment for Registration and Long-term EEG Analysis</t>
   </si>
   <si>
     <t>ASSESSMENT OF EARLY  CHANGES OBSERVABLE IN DIFFUSION MRI IN RESPONSE TO TYSABRI TREATMENT TO TWO YEARS IN PATIENTS WITH MULTIPLE SCLEROSIS 
  EVALUATION DES CHANGEMENTS PRÉCOCES VISIBLES À L’IRM DE DIFFUSION DANS LA RÉPONSE AU TRAITEMENT PAR TYSABRI À DEUX ANS CHEZ DES PATIENTS ATTEINTS DE SCLEROSE EN PLAQUES</t>
   </si>
   <si>
-    <t>Metabolic Efficiency of Combined Pancreatic Islet and Lung Transplant for the Treatment of End-Stage Cystic Fibrosis : a Pilot Study</t>
-  </si>
-  <si>
-    <t>Study of the Personal Identity in Adults With Autism Spectrum Disorder Without Intellectual Deficiency</t>
-  </si>
-  <si>
-    <t>Influence of Light on Sleep, Awakening, Electroencephalogram (EEG) and Cognitive Performances, and Medical Technology Assessment for Registration and Long-term EEG Analysis</t>
-  </si>
-  <si>
     <t>Kinectics of Distribution of Doxorubicin-Lipiodol Emulsion in c-TACE: a Pilot Study</t>
   </si>
   <si>
     <t>Multicenter Prospective Study of Abnormalies Tolerance Glucose by the Continuous Measurement of Glucose of Nutritional Status and Breathing in the Patient With Cystic Fibrosis</t>
   </si>
   <si>
+    <t>Prospective Evaluation of the Connected EMY Biofeedback Probe in the Management of Stress Urinary Incontinence.</t>
+  </si>
+  <si>
+    <t>Evaluation of a Telemedicine System for Patients Carried for Bariatric Surgery</t>
+  </si>
+  <si>
     <t>Multicentric Study Determining the Benefit of the Use of 3D Models and Tools in Hepatectomy Planning for Hepatocarcinomas</t>
   </si>
   <si>
-    <t>Prospective Evaluation of the Connected EMY Biofeedback Probe in the Management of Stress Urinary Incontinence.</t>
-  </si>
-  <si>
-    <t>Evaluation of a Telemedicine System for Patients Carried for Bariatric Surgery</t>
+    <t>Assessment of MRI Tractography for Pelvic Floor Sphincter Analysis</t>
+  </si>
+  <si>
+    <t>Efficacy of an Online Cognitive Behavioral Therapy (CBT) Programme Aiming at Reducing the Stress of Health Workers Involved in the Care of Patients During the Covid-19 Epidemic: a Randomized-controlled Trial</t>
+  </si>
+  <si>
+    <t>Étude du Mouvement de l'opérateur et de l'Endoscope au Cours de la Coloscopie</t>
   </si>
   <si>
     <t>Study of the Seroprevalence of SARS-CoV-2 in Hospital Staff in Strasbourg University Hospital, Strasbourg, France</t>
   </si>
   <si>
+    <t>Effect of a Mindfulness-based Stress Reduction (MBSR) Program Combined With Endurance Exercise Training: a Help to Improve Exercise Capacity and Quality of Life in Breast Cancer</t>
+  </si>
+  <si>
     <t>Comparison of Bonding Failure Rates of Fixed Mandibular Lingual Retainers in a French Sample Aged 11 or Older Comparing Prior Enamel Sandblasting With Conventional Pumice Polishing</t>
   </si>
   <si>
-    <t>Effect of a Mindfulness-based Stress Reduction (MBSR) Program Combined With Endurance Exercise Training: a Help to Improve Exercise Capacity and Quality of Life in Breast Cancer</t>
-  </si>
-  <si>
-    <t>Étude du Mouvement de l'opérateur et de l'Endoscope au Cours de la Coloscopie</t>
-  </si>
-  <si>
-    <t>Efficacy of an Online Cognitive Behavioral Therapy (CBT) Programme Aiming at Reducing the Stress of Health Workers Involved in the Care of Patients During the Covid-19 Epidemic: a Randomized-controlled Trial</t>
-  </si>
-  <si>
     <t>Study of Outpatient Management for Promontofixation by Laparoscopy</t>
   </si>
   <si>
-    <t>Assessment of MRI Tractography for Pelvic Floor Sphincter Analysis</t>
-  </si>
-  <si>
     <t>Clinical and Economic Evaluation of Outpatient Bariatric Surgery</t>
   </si>
   <si>
     <t>Study of the Technological and Operational Feasibility of a Remote Automated Monitoring System for the Post-operative Care of Surgical Patients</t>
   </si>
   <si>
+    <t>Cryotherapy Under Interventional Radiology Combined With in Situ Ipilimumab and a Flat Dose of Nivolumab in Stage IIIB/C Melanoma. Prospective Proof of Concept Study.</t>
+  </si>
+  <si>
+    <t>Transposition of Dynamic MRI Data From Healthy Patients to an in Vitro Swallowing Simulator</t>
+  </si>
+  <si>
     <t>Evaluation of RDS MultiSense® in Desaturation Analysis and Effects of Hypoxia on Circulating Oxidative Stress and Mitochondrial Respiration in Healthy Volunteers</t>
   </si>
   <si>
     <t>Endoscopist and Endoscope Motions During Digestive Endoscopy</t>
   </si>
   <si>
-    <t>Cryotherapy Under Interventional Radiology Combined With in Situ Ipilimumab and a Flat Dose of Nivolumab in Stage IIIB/C Melanoma. Prospective Proof of Concept Study.</t>
-  </si>
-  <si>
     <t>Safety and Performance Study of the MultiSense® Ambulatory Telemonitoring System for Non-critical Patient Management</t>
   </si>
   <si>
-    <t>Transposition of Dynamic MRI Data From Healthy Patients to an in Vitro Swallowing Simulator</t>
+    <t>Evaluation of the Feasibility of an Expert Decision Support System for Patients Regarding the Optimization of the Management of Drugs With Conditional Administration in the Surgical Department: Pilot Study</t>
+  </si>
+  <si>
+    <t>Self in Dementia With Lewy Bodies: a Behavioral and Multimodal Neuroimaging Study</t>
+  </si>
+  <si>
+    <t>Evaluation of an Alternative Treatment of Localized Prostate Cancer by Guided MRI Transurtral Ultrasound With 1-year Control of the Absence of Cancer</t>
   </si>
   <si>
     <t>Optical Coherence Tomography Imaging in Systemic Sclerosis</t>
   </si>
   <si>
-    <t>Evaluation of an Alternative Treatment of Localized Prostate Cancer by Guided MRI Transurtral Ultrasound With 1-year Control of the Absence of Cancer</t>
+    <t>Prospective Randomized Versus Placebo Study Assessing Efficacy of Plasmatherapy in Septic Shock-induced Coagulopathy: Feasibility Study</t>
+  </si>
+  <si>
+    <t>Evaluation of a Digital Perioperative Support Solution for Colorectal Surgery: Compliance and Impact on Patients</t>
   </si>
   <si>
     <t>Light Therapy in Parkinson's Disease : Effect on Motor Symptoms, Sleep, Circadian Rhythms, and Mood</t>
   </si>
   <si>
-    <t>Self in Dementia With Lewy Bodies: a Behavioral and Multimodal Neuroimaging Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Feasibility of an Expert Decision Support System for Patients Regarding the Optimization of the Management of Drugs With Conditional Administration in the Surgical Department: Pilot Study</t>
-  </si>
-  <si>
-    <t>Prospective Randomized Versus Placebo Study Assessing Efficacy of Plasmatherapy in Septic Shock-induced Coagulopathy: Feasibility Study</t>
-  </si>
-  <si>
-    <t>Evaluation of a Digital Perioperative Support Solution for Colorectal Surgery: Compliance and Impact on Patients</t>
+    <t>Multicenter Randomized Two-arms Study Evaluating the BK Viral Clearance in Kidney Transplant Recipients With BK Viremia After Reduction of Immunosuppression Alone vs. Reduction of Immunosuppression and Replacement of Mycophenolate Mofetil by Everolimus</t>
+  </si>
+  <si>
+    <t>Intravenous Immunoglobulins for Prevention of BKV Infection in Kidney Transplant Recipients According to BKV Genotype-specific Neutralizing Antibody Titers at the Day of Transplantation: A Multicenter Study</t>
   </si>
   <si>
     <t>Risk Stratification of Hepatocarcinogenesis Using a Deep Learning Based Clinical, Biological and Ultrasound Model in High-risk Patients</t>
   </si>
   <si>
-    <t>Intravenous Immunoglobulins for Prevention of BKV Infection in Kidney Transplant Recipients According to BKV Genotype-specific Neutralizing Antibody Titers at the Day of Transplantation: A Multicenter Study</t>
-  </si>
-  <si>
-    <t>Multicenter Randomized Two-arms Study Evaluating the BK Viral Clearance in Kidney Transplant Recipients With BK Viremia After Reduction of Immunosuppression Alone vs. Reduction of Immunosuppression and Replacement of Mycophenolate Mofetil by Everolimus</t>
+    <t>Transperineal, MRI-guided, Prostate Biopsy: First Step to Focal Treatment of Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Study of Pimavanserin Efficacy for the Treatment of Impulse Control Disorders in Parkinson's Disease</t>
   </si>
   <si>
     <t>Lyme Borreliosis and Early Cutaneous Diagnostic</t>
   </si>
   <si>
-    <t>Transperineal, MRI-guided, Prostate Biopsy: First Step to Focal Treatment of Prostate Cancer</t>
-  </si>
-  <si>
-    <t>Study of Pimavanserin Efficacy for the Treatment of Impulse Control Disorders in Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>Study of pimavanserin efficacy for the treatment of impulse control disorders in Parkinson's disease</t>
-  </si>
-  <si>
-    <t>EVALUATION D'UN GEL DE MORPHINE ORAL DANS LES MUCITES CHIMIOINDUITES DE L'ENFANT ET DU JEUNE ADULTE</t>
+    <t>Light Therapy for Chronic Insomnia in General Practice: a Randomized Double Blind Study</t>
   </si>
   <si>
     <t>Pilot study on doxorubicin kinetic distribution during arterial chemoembolization 
  Etude pilote de la cinétique de distribution de la Doxorubicine lors de la chimio-embolisation artérielle</t>
   </si>
   <si>
+    <t>EVALUATION D'UN GEL DE MORPHINE ORAL DANS LES MUCITES CHIMIOINDUITES DE L'ENFANT ET DU JEUNE ADULTE</t>
+  </si>
+  <si>
     <t>Identification of Sentinel Lymph Node (SLN) in Breast Cancer Care: Clinical and Economical Evaluation of a Double Method Using Isotope and Methylene Blue Dye Injection.</t>
   </si>
   <si>
+    <t>Cryotherapy under interventional radiology combined with in situ ipilimumab and a flat dose of Nivolumab in stage IIIB/C melanoma. Prospective proof of concept study. 
+ Destruction ciblée des métastases de mélanome par radiologie interventionnelle (RI) couplée à l’Immunothérapie anti-tumorale in situ. Etude prospective de faisabilité et de preuve de concept.</t>
+  </si>
+  <si>
+    <t>Prospective randomized versus placebo study evaluating the feasibility of plasma therapy in septic shock induced coagulopathy 
+ Étude prospective randomisée versus placebo évaluant la faisabilité d'une plasmathérapie dans la coagulopathie induite par le choc septique</t>
+  </si>
+  <si>
+    <t>Study of pimavanserin efficacy for the treatment of impulse control disorders in Parkinson's disease</t>
+  </si>
+  <si>
     <t>Phenotypic Characteristics and Transcriptomas of B Lymphocytes During Non Active Systemic Lupus Erythematosus</t>
   </si>
   <si>
@@ -764,34 +790,38 @@
     <t>ibid</t>
   </si>
   <si>
+    <t>RAPIRI</t>
+  </si>
+  <si>
     <t>ROC</t>
   </si>
   <si>
-    <t>RAPIRI</t>
+    <t>LUMI</t>
   </si>
   <si>
     <t>ECHOFUSION</t>
   </si>
   <si>
-    <t>LUMI</t>
+    <t>IMMERSION</t>
+  </si>
+  <si>
+    <t>CRYOREIN</t>
+  </si>
+  <si>
+    <t>FFSI</t>
+  </si>
+  <si>
+    <t>Neuro-Tracto</t>
+  </si>
+  <si>
+    <t>FLARIOC</t>
   </si>
   <si>
     <t>VISLISI</t>
   </si>
   <si>
-    <t>IMMERSION</t>
-  </si>
-  <si>
-    <t>FFSI</t>
-  </si>
-  <si>
-    <t>Neuro-Tracto</t>
-  </si>
-  <si>
-    <t>CRYOREIN</t>
-  </si>
-  <si>
-    <t>FLARIOC</t>
+    <t>HEPOIRINE 
+ HEPOIRINE</t>
   </si>
   <si>
     <t>AMOrSchiz</t>
@@ -801,140 +831,147 @@
  VILDDIAL</t>
   </si>
   <si>
-    <t>HEPOIRINE 
- HEPOIRINE</t>
+    <t>CRYODESMO01</t>
   </si>
   <si>
     <t>SORKYSA</t>
   </si>
   <si>
-    <t>CRYODESMO01</t>
+    <t>PERFECT</t>
+  </si>
+  <si>
+    <t>Pilot pCLE</t>
+  </si>
+  <si>
+    <t>RESMO</t>
+  </si>
+  <si>
+    <t>HEA vs Blood patch</t>
+  </si>
+  <si>
+    <t>ETAP</t>
+  </si>
+  <si>
+    <t>ETO VD PERIOP</t>
   </si>
   <si>
     <t>ETHNOPARK</t>
   </si>
   <si>
-    <t>RESMO</t>
-  </si>
-  <si>
-    <t>HEA vs Blood patch</t>
-  </si>
-  <si>
-    <t>ETAP</t>
-  </si>
-  <si>
-    <t>Pilot pCLE</t>
-  </si>
-  <si>
-    <t>PERFECT</t>
-  </si>
-  <si>
-    <t>ETO VD PERIOP</t>
-  </si>
-  <si>
     <t>DICEP</t>
   </si>
   <si>
+    <t>TSASDI</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>CHRONOSOMNO</t>
+  </si>
+  <si>
     <t>TYSADIFF</t>
   </si>
   <si>
-    <t>PIM</t>
-  </si>
-  <si>
-    <t>TSASDI</t>
-  </si>
-  <si>
-    <t>CHRONOSOMNO</t>
-  </si>
-  <si>
     <t>CineDoxo</t>
   </si>
   <si>
+    <t>Reduc@home</t>
+  </si>
+  <si>
+    <t>Bartélémis</t>
+  </si>
+  <si>
     <t>3D-HAPPI</t>
   </si>
   <si>
-    <t>Reduc@home</t>
-  </si>
-  <si>
-    <t>Bartélémis</t>
+    <t>TractoCA</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>ScopeGuide</t>
   </si>
   <si>
     <t>SeroCoV-HUS</t>
   </si>
   <si>
+    <t>MBSR</t>
+  </si>
+  <si>
     <t>CONTORTHO</t>
   </si>
   <si>
-    <t>MBSR</t>
-  </si>
-  <si>
-    <t>ScopeGuide</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>TractoCA</t>
-  </si>
-  <si>
     <t>Bariatric Ambu</t>
   </si>
   <si>
     <t>REDASUR</t>
   </si>
   <si>
+    <t>CRIRIN</t>
+  </si>
+  <si>
+    <t>SWALL-E</t>
+  </si>
+  <si>
     <t>HYPO</t>
   </si>
   <si>
     <t>EndoMouv</t>
   </si>
   <si>
-    <t>CRIRIN</t>
-  </si>
-  <si>
     <t>TELESENSE</t>
   </si>
   <si>
-    <t>SWALL-E</t>
+    <t>MORPHEE 2</t>
+  </si>
+  <si>
+    <t>SELF-MCL</t>
+  </si>
+  <si>
+    <t>MRI-TULSAP</t>
   </si>
   <si>
     <t>OCTISS</t>
   </si>
   <si>
-    <t>MRI-TULSAP</t>
-  </si>
-  <si>
-    <t>SELF-MCL</t>
-  </si>
-  <si>
-    <t>MORPHEE 2</t>
-  </si>
-  <si>
     <t>PlasmaFaisa</t>
   </si>
   <si>
     <t>Get Ready</t>
   </si>
   <si>
+    <t>BK EVER</t>
+  </si>
+  <si>
+    <t>BKANIG</t>
+  </si>
+  <si>
     <t>STARHE</t>
   </si>
   <si>
-    <t>BKANIG</t>
-  </si>
-  <si>
-    <t>BK EVER</t>
+    <t>PIMPARK</t>
   </si>
   <si>
     <t>DIABOLYC</t>
   </si>
   <si>
-    <t>PIMPARK</t>
+    <t>Insolux</t>
+  </si>
+  <si>
+    <t>CINEDOXO</t>
   </si>
   <si>
     <t>MorphinOGel</t>
   </si>
   <si>
-    <t>CINEDOXO</t>
+    <t>CRIRIN 
+ CRIRIN</t>
+  </si>
+  <si>
+    <t>PLASMA-faisa 
+ PLASMA-faisa</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -946,16 +983,16 @@
     <t>DEVICE</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>RADIATION</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
-    <t>BIOLOGICAL</t>
-  </si>
-  <si>
-    <t>OTHER</t>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>GENETIC</t>
@@ -1322,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1368,13 +1405,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1388,53 +1425,53 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1448,13 +1485,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1468,13 +1505,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1488,13 +1525,13 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1508,16 +1545,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I9" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1531,13 +1568,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1551,13 +1588,13 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1571,13 +1608,13 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1591,13 +1628,13 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1611,13 +1648,13 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1631,13 +1668,13 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1651,13 +1688,13 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1667,40 +1704,43 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="D17" t="s">
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
+        <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I18" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1711,36 +1751,39 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>249</v>
+        <v>257</v>
+      </c>
+      <c r="I20" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1754,13 +1797,13 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1774,16 +1817,13 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1797,13 +1837,13 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1817,13 +1857,13 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I24" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1837,33 +1877,33 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1877,33 +1917,33 @@
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I27" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1917,13 +1957,13 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I29" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1937,33 +1977,33 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>177</v>
+      </c>
+      <c r="I31" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1974,39 +2014,39 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2020,13 +2060,16 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>180</v>
+      </c>
+      <c r="H34" t="s">
+        <v>259</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2040,13 +2083,13 @@
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2060,16 +2103,16 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2083,16 +2126,13 @@
         <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2106,13 +2146,16 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="H38" t="s">
+        <v>261</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2126,36 +2169,39 @@
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="H40" t="s">
+        <v>263</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2169,16 +2215,16 @@
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2192,62 +2238,56 @@
         <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G43" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H43" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
-      </c>
-      <c r="H44" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2261,13 +2301,13 @@
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I45" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2277,17 +2317,20 @@
       <c r="B46" t="s">
         <v>13</v>
       </c>
-      <c r="C46" t="s">
-        <v>59</v>
+      <c r="D46" t="s">
+        <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="H46" t="s">
+        <v>266</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2297,17 +2340,20 @@
       <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" t="s">
-        <v>115</v>
+      <c r="C47" t="s">
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H47" t="s">
-        <v>259</v>
+        <v>267</v>
+      </c>
+      <c r="I47" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2317,163 +2363,172 @@
       <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="D48" t="s">
-        <v>116</v>
+      <c r="C48" t="s">
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" t="s">
-        <v>260</v>
+        <v>194</v>
+      </c>
+      <c r="I48" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
-      </c>
-      <c r="H49" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G50" t="s">
-        <v>191</v>
+        <v>196</v>
+      </c>
+      <c r="H50" t="s">
+        <v>268</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G51" t="s">
-        <v>192</v>
+        <v>197</v>
+      </c>
+      <c r="H51" t="s">
+        <v>269</v>
       </c>
       <c r="I51" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G52" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="G53" t="s">
+        <v>199</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I53" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I54" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="H55" t="s">
+        <v>272</v>
       </c>
       <c r="I55" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2487,16 +2542,16 @@
         <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H56" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2507,105 +2562,108 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H57" t="s">
-        <v>265</v>
+        <v>274</v>
+      </c>
+      <c r="I57" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
-      </c>
-      <c r="H58" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="I58" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>69</v>
       </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
       <c r="F59" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="H59" t="s">
+        <v>275</v>
       </c>
       <c r="I59" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>70</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I60" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>71</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="H61" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I61" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2619,16 +2677,13 @@
         <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G62" t="s">
-        <v>202</v>
-      </c>
-      <c r="H62" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="I62" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2642,13 +2697,13 @@
         <v>73</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I63" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2662,16 +2717,16 @@
         <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H64" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="I64" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2681,17 +2736,20 @@
       <c r="B65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" t="s">
-        <v>118</v>
+      <c r="C65" t="s">
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H65" t="s">
-        <v>271</v>
+        <v>279</v>
+      </c>
+      <c r="I65" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2702,19 +2760,19 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I66" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2725,19 +2783,19 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G67" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H67" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I67" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2747,20 +2805,20 @@
       <c r="B68" t="s">
         <v>13</v>
       </c>
-      <c r="C68" t="s">
-        <v>77</v>
+      <c r="D68" t="s">
+        <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G68" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H68" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I68" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2774,16 +2832,16 @@
         <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G69" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H69" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I69" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2797,13 +2855,13 @@
         <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G70" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I70" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2817,16 +2875,16 @@
         <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G71" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H71" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I71" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2840,16 +2898,16 @@
         <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I72" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2863,62 +2921,62 @@
         <v>82</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>83</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G74" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I74" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>84</v>
       </c>
       <c r="F75" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G75" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H75" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I75" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2932,62 +2990,62 @@
         <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G76" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H76" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I76" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
       </c>
       <c r="F77" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G77" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H77" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I77" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>87</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G78" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H78" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I78" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3001,13 +3059,16 @@
         <v>88</v>
       </c>
       <c r="F79" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G79" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="H79" t="s">
+        <v>292</v>
       </c>
       <c r="I79" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3021,16 +3082,13 @@
         <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G80" t="s">
-        <v>220</v>
-      </c>
-      <c r="H80" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="I80" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3044,16 +3102,16 @@
         <v>90</v>
       </c>
       <c r="F81" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G81" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H81" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I81" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3067,16 +3125,16 @@
         <v>91</v>
       </c>
       <c r="F82" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G82" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H82" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="I82" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3090,16 +3148,16 @@
         <v>92</v>
       </c>
       <c r="F83" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G83" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H83" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I83" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3113,16 +3171,16 @@
         <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G84" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H84" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="I84" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3136,16 +3194,16 @@
         <v>94</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G85" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H85" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I85" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3159,16 +3217,16 @@
         <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G86" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H86" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="I86" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3182,16 +3240,16 @@
         <v>96</v>
       </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G87" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H87" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="I87" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3205,16 +3263,16 @@
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G88" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H88" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="I88" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3228,16 +3286,16 @@
         <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G89" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H89" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="I89" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3251,13 +3309,16 @@
         <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G90" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="H90" t="s">
+        <v>302</v>
       </c>
       <c r="I90" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3271,16 +3332,16 @@
         <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G91" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H91" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I91" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3294,16 +3355,16 @@
         <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G92" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H92" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I92" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3317,16 +3378,16 @@
         <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G93" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H93" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I93" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3340,16 +3401,13 @@
         <v>103</v>
       </c>
       <c r="F94" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G94" t="s">
-        <v>234</v>
-      </c>
-      <c r="H94" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="I94" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3363,16 +3421,16 @@
         <v>104</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G95" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H95" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I95" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3386,19 +3444,19 @@
         <v>105</v>
       </c>
       <c r="E96" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F96" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G96" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H96" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="I96" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3412,16 +3470,16 @@
         <v>106</v>
       </c>
       <c r="F97" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G97" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H97" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I97" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3435,16 +3493,13 @@
         <v>107</v>
       </c>
       <c r="F98" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G98" t="s">
-        <v>238</v>
-      </c>
-      <c r="H98" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="I98" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3458,13 +3513,16 @@
         <v>108</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G99" t="s">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="H99" t="s">
+        <v>309</v>
       </c>
       <c r="I99" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3478,16 +3536,16 @@
         <v>109</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G100" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H100" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I100" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3497,14 +3555,20 @@
       <c r="B101" t="s">
         <v>13</v>
       </c>
-      <c r="D101" t="s">
-        <v>119</v>
+      <c r="C101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" t="s">
+        <v>147</v>
       </c>
       <c r="G101" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H101" t="s">
-        <v>302</v>
+        <v>311</v>
+      </c>
+      <c r="I101" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3515,13 +3579,16 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G102" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H102" t="s">
-        <v>303</v>
+        <v>312</v>
+      </c>
+      <c r="I102" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3532,13 +3599,16 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G103" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H103" t="s">
-        <v>304</v>
+        <v>313</v>
+      </c>
+      <c r="I103" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3549,13 +3619,13 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G104" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I104" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3565,14 +3635,17 @@
       <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="C105" t="s">
-        <v>111</v>
+      <c r="D105" t="s">
+        <v>123</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>250</v>
+      </c>
+      <c r="H105" t="s">
+        <v>314</v>
       </c>
       <c r="I105" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3582,14 +3655,71 @@
       <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>124</v>
+      </c>
+      <c r="G106" t="s">
+        <v>251</v>
+      </c>
+      <c r="H106" t="s">
+        <v>315</v>
+      </c>
+      <c r="I106" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>125</v>
+      </c>
+      <c r="G107" t="s">
+        <v>252</v>
+      </c>
+      <c r="H107" t="s">
+        <v>309</v>
+      </c>
+      <c r="I107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
         <v>112</v>
       </c>
-      <c r="G106" t="s">
-        <v>246</v>
-      </c>
-      <c r="I106" t="s">
-        <v>305</v>
+      <c r="G108" t="s">
+        <v>253</v>
+      </c>
+      <c r="I108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="G109" t="s">
+        <v>254</v>
+      </c>
+      <c r="I109" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
